--- a/data/raw_results/lanupro_vocabulary_incubations.xlsx
+++ b/data/raw_results/lanupro_vocabulary_incubations.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\my_github_projects\lanupro_vocabulary_2025\data\raw_results\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SH\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3562255-0EC7-4208-8BF1-5666139C7AD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36C41956-6B19-417C-B0B8-5B6FA5DBF4BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{06EA7712-9BA5-4E3A-B464-81F94650D082}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="210">
   <si>
     <t>lanupro_ontology</t>
   </si>
@@ -2100,13 +2100,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CE468F5-6397-4C82-931F-B2CE02F46428}">
-  <dimension ref="A1:DB67"/>
+  <dimension ref="A1:DB66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B20" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A22" sqref="A22"/>
+      <selection pane="bottomRight" activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2859,156 +2859,151 @@
     </row>
     <row r="37" spans="1:1">
       <c r="A37" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" t="s">
-        <v>184</v>
+        <v>165</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" t="s">
-        <v>171</v>
+        <v>198</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50" t="s">
-        <v>200</v>
+        <v>208</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58" t="s">
-        <v>207</v>
+        <v>185</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="60" spans="1:1">
       <c r="A60" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="61" spans="1:1">
       <c r="A61" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="62" spans="1:1">
       <c r="A62" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="63" spans="1:1">
       <c r="A63" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="64" spans="1:1">
       <c r="A64" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="65" spans="1:1">
       <c r="A65" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="66" spans="1:1">
       <c r="A66" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="67" spans="1:1">
-      <c r="A67" t="s">
         <v>181</v>
       </c>
     </row>

--- a/data/raw_results/lanupro_vocabulary_incubations.xlsx
+++ b/data/raw_results/lanupro_vocabulary_incubations.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SH\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\my_github_projects\lanupro_vocabulary_2025\data\raw_results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36C41956-6B19-417C-B0B8-5B6FA5DBF4BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D68FB63-4D84-4A1D-BA4E-9D9CA18C6032}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{06EA7712-9BA5-4E3A-B464-81F94650D082}"/>
   </bookViews>
@@ -2103,10 +2103,10 @@
   <dimension ref="A1:DB66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B20" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B48" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B30" sqref="B30"/>
+      <selection pane="bottomRight" activeCell="A67" sqref="A67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>

--- a/data/raw_results/lanupro_vocabulary_incubations.xlsx
+++ b/data/raw_results/lanupro_vocabulary_incubations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\my_github_projects\lanupro_vocabulary_2025\data\raw_results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D68FB63-4D84-4A1D-BA4E-9D9CA18C6032}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A3C48C5-C93E-45E7-A91A-B6F9AFB91824}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{06EA7712-9BA5-4E3A-B464-81F94650D082}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="198">
   <si>
     <t>lanupro_ontology</t>
   </si>
@@ -456,45 +456,12 @@
     <t>trt_add_1</t>
   </si>
   <si>
-    <t>amount of maize silage (mg) added for rumen incubation substrate</t>
-  </si>
-  <si>
-    <t>amount of grass silage (mg) added for rumen incubation substrate</t>
-  </si>
-  <si>
-    <t>amount of concentrate (mg) added for rumen incubation substrate</t>
-  </si>
-  <si>
-    <t>treatment additive 1 in rumen incubation</t>
-  </si>
-  <si>
-    <t>trt_add_1_mg</t>
-  </si>
-  <si>
-    <t>amount of treatment additive 1 added (mg)</t>
-  </si>
-  <si>
     <t>trt_add_2</t>
   </si>
   <si>
-    <t>trt_add_2_mg</t>
-  </si>
-  <si>
     <t>trt_add_3</t>
   </si>
   <si>
-    <t>trt_add_3_mg</t>
-  </si>
-  <si>
-    <t>amount of treatment additive 3 added (mg)</t>
-  </si>
-  <si>
-    <t>treatment additive 3 in rumen incubation</t>
-  </si>
-  <si>
-    <t>amount of treatment additive 2 added (mg)</t>
-  </si>
-  <si>
     <t>treatment additive 2 in rumen incubation</t>
   </si>
   <si>
@@ -507,78 +474,18 @@
     <t>silica</t>
   </si>
   <si>
-    <t>micro_mol_per_g_dm</t>
-  </si>
-  <si>
-    <t>mol_per_mol_vfa</t>
-  </si>
-  <si>
-    <t>rumen incubation methane production  in micro mol per g dry matter substrate</t>
-  </si>
-  <si>
-    <t>rumen incubation methane production in moles of methane per mole of total volatile fatty acids (vfa)</t>
-  </si>
-  <si>
     <t>levels if the variable is a factor (in wide format)</t>
   </si>
   <si>
     <t>trt_add_4</t>
   </si>
   <si>
-    <t>trt_add_4_mg</t>
-  </si>
-  <si>
-    <t>neg_cnt</t>
-  </si>
-  <si>
-    <t>pos_cnt_1</t>
-  </si>
-  <si>
-    <t>solv_1</t>
-  </si>
-  <si>
     <t>gas_method</t>
   </si>
   <si>
     <t>vfa_method</t>
   </si>
   <si>
-    <t>ms_exact_mg</t>
-  </si>
-  <si>
-    <t>gs_exact_mg</t>
-  </si>
-  <si>
-    <t>conc_exact_mg</t>
-  </si>
-  <si>
-    <t>trt_add_1_exact_mg</t>
-  </si>
-  <si>
-    <t>trt_add_2_exact_mg</t>
-  </si>
-  <si>
-    <t>trt_add_3_exact_mg</t>
-  </si>
-  <si>
-    <t>trt_add_4_exact_mg</t>
-  </si>
-  <si>
-    <t>h2o_ml</t>
-  </si>
-  <si>
-    <t>volume_bottle</t>
-  </si>
-  <si>
-    <t>solv_1_cnt_ul</t>
-  </si>
-  <si>
-    <t>rumen_incubation_duration</t>
-  </si>
-  <si>
-    <t>samples_stored</t>
-  </si>
-  <si>
     <t>gas</t>
   </si>
   <si>
@@ -630,24 +537,12 @@
     <t>trt_add_2_ug_per_ml</t>
   </si>
   <si>
-    <t>trt_add_2_ul</t>
-  </si>
-  <si>
     <t>trt_add_3_ug_per_ml</t>
   </si>
   <si>
     <t>trt_add_4_ug_per_ml</t>
   </si>
   <si>
-    <t>pos_cnt_1_umol_per_ml</t>
-  </si>
-  <si>
-    <t>ch4_umol_per_g_dm</t>
-  </si>
-  <si>
-    <t>h2_umol_per_g_dm</t>
-  </si>
-  <si>
     <t>total_vfa_umol_per_g_dm</t>
   </si>
   <si>
@@ -672,10 +567,79 @@
     <t>caproate_umol_per_g_dm</t>
   </si>
   <si>
-    <t>ch4_vfa_mol_mol</t>
-  </si>
-  <si>
-    <t>ch4_mol_per_mol_vfa</t>
+    <t>trt_rep_1_id</t>
+  </si>
+  <si>
+    <t>trt_rep_mg</t>
+  </si>
+  <si>
+    <t>nylon_pore_size_µm</t>
+  </si>
+  <si>
+    <t>bag_size_cm2</t>
+  </si>
+  <si>
+    <t>trt</t>
+  </si>
+  <si>
+    <t>blanc</t>
+  </si>
+  <si>
+    <t>control</t>
+  </si>
+  <si>
+    <t>direct_pr</t>
+  </si>
+  <si>
+    <t>rumen_residue_pr</t>
+  </si>
+  <si>
+    <t>blanc: , control: , direct_pr: , rumen_residue_pr:</t>
+  </si>
+  <si>
+    <t>trt_add_1_ug_per_ml</t>
+  </si>
+  <si>
+    <t>vol_grav</t>
+  </si>
+  <si>
+    <t>post_rumen</t>
+  </si>
+  <si>
+    <t>rumen_duration</t>
+  </si>
+  <si>
+    <t>vol_flask_ml</t>
+  </si>
+  <si>
+    <t>post_rumen_stomach_duration</t>
+  </si>
+  <si>
+    <t>post_rumen_small intestine_duration</t>
+  </si>
+  <si>
+    <t>dm</t>
+  </si>
+  <si>
+    <t>dm_method</t>
+  </si>
+  <si>
+    <t>amount of maize silage (mg) added for rumen incubation substrate (exact)</t>
+  </si>
+  <si>
+    <t>amount of grass silage (mg) added for rumen incubation substrate  (exact)</t>
+  </si>
+  <si>
+    <t>amount of concentrate (mg) added for rumen incubation substrate  (exact)</t>
+  </si>
+  <si>
+    <t>methane_umol_per_g_dm</t>
+  </si>
+  <si>
+    <t>hydrogen_umol_per_g_dm</t>
+  </si>
+  <si>
+    <t>methane_vfa_mol_mol</t>
   </si>
 </sst>
 </file>
@@ -2100,13 +2064,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CE468F5-6397-4C82-931F-B2CE02F46428}">
-  <dimension ref="A1:DB66"/>
+  <dimension ref="A1:DB57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B48" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B26" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A67" sqref="A67"/>
+      <selection pane="bottomRight" activeCell="A42" sqref="A42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2120,7 +2084,7 @@
     <col min="7" max="7" width="9.44140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.88671875" customWidth="1"/>
     <col min="9" max="9" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.6640625" bestFit="1" customWidth="1"/>
     <col min="11" max="12" width="11.88671875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="10.21875" bestFit="1" customWidth="1"/>
   </cols>
@@ -2479,7 +2443,7 @@
         <v>110</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>136</v>
+        <v>192</v>
       </c>
       <c r="F3" t="s">
         <v>128</v>
@@ -2519,7 +2483,7 @@
         <v>110</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>137</v>
+        <v>193</v>
       </c>
       <c r="F5" t="s">
         <v>128</v>
@@ -2559,7 +2523,7 @@
         <v>110</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>138</v>
+        <v>194</v>
       </c>
       <c r="F7" t="s">
         <v>128</v>
@@ -2567,309 +2531,273 @@
     </row>
     <row r="8" spans="1:106">
       <c r="A8" t="s">
-        <v>135</v>
-      </c>
-      <c r="B8" t="s">
-        <v>112</v>
-      </c>
-      <c r="C8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" t="s">
-        <v>6</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="F8" t="s">
-        <v>112</v>
-      </c>
-      <c r="G8" t="s">
-        <v>150</v>
-      </c>
-      <c r="H8" t="s">
-        <v>151</v>
-      </c>
-      <c r="I8" t="s">
-        <v>152</v>
+        <v>173</v>
       </c>
     </row>
     <row r="9" spans="1:106">
       <c r="A9" t="s">
-        <v>140</v>
-      </c>
-      <c r="B9" t="s">
-        <v>112</v>
-      </c>
-      <c r="C9" t="s">
-        <v>109</v>
-      </c>
-      <c r="D9" t="s">
-        <v>110</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="F9" t="s">
-        <v>128</v>
+        <v>174</v>
       </c>
     </row>
     <row r="10" spans="1:106">
       <c r="A10" t="s">
-        <v>142</v>
-      </c>
-      <c r="B10" t="s">
-        <v>112</v>
-      </c>
-      <c r="C10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10" t="s">
-        <v>6</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="F10" t="s">
-        <v>112</v>
-      </c>
-      <c r="G10" t="s">
-        <v>150</v>
-      </c>
-      <c r="H10" t="s">
-        <v>151</v>
-      </c>
-      <c r="I10" t="s">
-        <v>152</v>
+        <v>175</v>
       </c>
     </row>
     <row r="11" spans="1:106">
       <c r="A11" t="s">
-        <v>143</v>
-      </c>
-      <c r="B11" t="s">
-        <v>112</v>
-      </c>
-      <c r="C11" t="s">
-        <v>109</v>
-      </c>
-      <c r="D11" t="s">
-        <v>110</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="F11" t="s">
-        <v>128</v>
+        <v>176</v>
       </c>
     </row>
     <row r="12" spans="1:106">
       <c r="A12" t="s">
-        <v>193</v>
+        <v>177</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="G12" t="s">
+        <v>178</v>
+      </c>
+      <c r="H12" t="s">
+        <v>179</v>
+      </c>
+      <c r="I12" t="s">
+        <v>180</v>
+      </c>
+      <c r="J12" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="13" spans="1:106">
       <c r="A13" t="s">
-        <v>194</v>
+        <v>135</v>
+      </c>
+      <c r="B13" t="s">
+        <v>112</v>
+      </c>
+      <c r="C13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" t="s">
+        <v>6</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="F13" t="s">
+        <v>112</v>
+      </c>
+      <c r="G13" t="s">
+        <v>139</v>
+      </c>
+      <c r="H13" t="s">
+        <v>140</v>
+      </c>
+      <c r="I13" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="14" spans="1:106">
       <c r="A14" t="s">
-        <v>144</v>
-      </c>
-      <c r="B14" t="s">
-        <v>112</v>
-      </c>
-      <c r="C14" t="s">
-        <v>7</v>
-      </c>
-      <c r="D14" t="s">
-        <v>6</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="F14" t="s">
-        <v>112</v>
-      </c>
-      <c r="G14" t="s">
-        <v>150</v>
-      </c>
-      <c r="H14" t="s">
-        <v>151</v>
-      </c>
-      <c r="I14" t="s">
-        <v>152</v>
+        <v>183</v>
       </c>
     </row>
     <row r="15" spans="1:106">
       <c r="A15" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="B15" t="s">
         <v>112</v>
       </c>
       <c r="C15" t="s">
-        <v>109</v>
+        <v>7</v>
       </c>
       <c r="D15" t="s">
-        <v>110</v>
+        <v>6</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="F15" t="s">
-        <v>128</v>
+        <v>112</v>
+      </c>
+      <c r="G15" t="s">
+        <v>139</v>
+      </c>
+      <c r="H15" t="s">
+        <v>140</v>
+      </c>
+      <c r="I15" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="16" spans="1:106">
       <c r="A16" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
+        <v>137</v>
+      </c>
+      <c r="B17" t="s">
+        <v>112</v>
+      </c>
+      <c r="C17" t="s">
+        <v>7</v>
+      </c>
+      <c r="D17" t="s">
+        <v>6</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="F17" t="s">
+        <v>112</v>
+      </c>
+      <c r="G17" t="s">
+        <v>139</v>
+      </c>
+      <c r="H17" t="s">
+        <v>140</v>
+      </c>
+      <c r="I17" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="28.8">
+        <v>143</v>
+      </c>
+      <c r="B19" t="s">
+        <v>112</v>
+      </c>
+      <c r="C19" t="s">
+        <v>7</v>
+      </c>
+      <c r="D19" t="s">
+        <v>6</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="F19" t="s">
+        <v>112</v>
+      </c>
+      <c r="G19" t="s">
+        <v>139</v>
+      </c>
+      <c r="H19" t="s">
+        <v>140</v>
+      </c>
+      <c r="I19" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" t="s">
-        <v>198</v>
-      </c>
-      <c r="B20" t="s">
-        <v>112</v>
-      </c>
-      <c r="C20" t="s">
-        <v>109</v>
-      </c>
-      <c r="D20" t="s">
-        <v>110</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="F20" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="28.8">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" t="s">
-        <v>209</v>
-      </c>
-      <c r="B21" t="s">
-        <v>112</v>
-      </c>
-      <c r="C21" t="s">
-        <v>109</v>
-      </c>
-      <c r="D21" t="s">
-        <v>110</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="F21" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" t="s">
-        <v>163</v>
+        <v>191</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" t="s">
-        <v>178</v>
+        <v>148</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" t="s">
-        <v>179</v>
+        <v>151</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" t="s">
-        <v>180</v>
+        <v>152</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" t="s">
-        <v>182</v>
+        <v>153</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" t="s">
-        <v>183</v>
+        <v>195</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" t="s">
-        <v>184</v>
+        <v>196</v>
       </c>
     </row>
     <row r="40" spans="1:1">
@@ -2879,132 +2807,87 @@
     </row>
     <row r="41" spans="1:1">
       <c r="A41" t="s">
-        <v>166</v>
+        <v>197</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" t="s">
-        <v>198</v>
+        <v>171</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" t="s">
-        <v>199</v>
+        <v>172</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49" t="s">
-        <v>200</v>
+        <v>154</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50" t="s">
-        <v>208</v>
+        <v>155</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51" t="s">
-        <v>201</v>
+        <v>156</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52" t="s">
-        <v>202</v>
+        <v>157</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53" t="s">
-        <v>203</v>
+        <v>158</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54" t="s">
-        <v>204</v>
+        <v>159</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55" t="s">
-        <v>205</v>
+        <v>160</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56" t="s">
-        <v>206</v>
+        <v>161</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="58" spans="1:1">
-      <c r="A58" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="59" spans="1:1">
-      <c r="A59" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="60" spans="1:1">
-      <c r="A60" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="61" spans="1:1">
-      <c r="A61" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="62" spans="1:1">
-      <c r="A62" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="63" spans="1:1">
-      <c r="A63" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="64" spans="1:1">
-      <c r="A64" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="65" spans="1:1">
-      <c r="A65" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="66" spans="1:1">
-      <c r="A66" t="s">
-        <v>181</v>
+        <v>150</v>
       </c>
     </row>
   </sheetData>
@@ -3023,7 +2906,7 @@
           <x14:formula1>
             <xm:f>description!$E$6:$H$6</xm:f>
           </x14:formula1>
-          <xm:sqref>C2:C7</xm:sqref>
+          <xm:sqref>C2:C12</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -3214,7 +3097,7 @@
         <v>6</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>

--- a/data/raw_results/lanupro_vocabulary_incubations.xlsx
+++ b/data/raw_results/lanupro_vocabulary_incubations.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\my_github_projects\lanupro_vocabulary_2025\data\raw_results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A3C48C5-C93E-45E7-A91A-B6F9AFB91824}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FCD3562-C32A-487F-8CDD-7338979FF1EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{06EA7712-9BA5-4E3A-B464-81F94650D082}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{06EA7712-9BA5-4E3A-B464-81F94650D082}"/>
   </bookViews>
   <sheets>
     <sheet name="vocabulary" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="526" uniqueCount="203">
   <si>
     <t>lanupro_ontology</t>
   </si>
@@ -543,30 +543,6 @@
     <t>trt_add_4_ug_per_ml</t>
   </si>
   <si>
-    <t>total_vfa_umol_per_g_dm</t>
-  </si>
-  <si>
-    <t>acetate_umol_per_g_dm</t>
-  </si>
-  <si>
-    <t>propionate_umol_per_g_dm</t>
-  </si>
-  <si>
-    <t>isobutyrate_umol_per_g_dm</t>
-  </si>
-  <si>
-    <t>butyrate_umol_per_g_dm</t>
-  </si>
-  <si>
-    <t>isovalerate_umol_per_g_dm</t>
-  </si>
-  <si>
-    <t>valerate_umol_per_g_dm</t>
-  </si>
-  <si>
-    <t>caproate_umol_per_g_dm</t>
-  </si>
-  <si>
     <t>trt_rep_1_id</t>
   </si>
   <si>
@@ -633,13 +609,52 @@
     <t>amount of concentrate (mg) added for rumen incubation substrate  (exact)</t>
   </si>
   <si>
-    <t>methane_umol_per_g_dm</t>
-  </si>
-  <si>
-    <t>hydrogen_umol_per_g_dm</t>
-  </si>
-  <si>
     <t>methane_vfa_mol_mol</t>
+  </si>
+  <si>
+    <t>methane_umol_g_dm</t>
+  </si>
+  <si>
+    <t>hydrogen_umol_g_dm</t>
+  </si>
+  <si>
+    <t>total_vfa_umol_g_dm</t>
+  </si>
+  <si>
+    <t>acetate_umol_g_dm</t>
+  </si>
+  <si>
+    <t>propionate_umol_g_dm</t>
+  </si>
+  <si>
+    <t>isobutyrate_umol_g_dm</t>
+  </si>
+  <si>
+    <t>butyrate_umol_g_dm</t>
+  </si>
+  <si>
+    <t>isovalerate_umol_g_dm</t>
+  </si>
+  <si>
+    <t>valerate_umol_g_dm</t>
+  </si>
+  <si>
+    <t>caproate_umol_g_dm</t>
+  </si>
+  <si>
+    <t>rumen_degradability_percent</t>
+  </si>
+  <si>
+    <t>overall_degradability_percent</t>
+  </si>
+  <si>
+    <t>methane_umol_g_dm_digested</t>
+  </si>
+  <si>
+    <t>nc</t>
+  </si>
+  <si>
+    <t>bromo_01</t>
   </si>
 </sst>
 </file>
@@ -2064,13 +2079,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CE468F5-6397-4C82-931F-B2CE02F46428}">
-  <dimension ref="A1:DB57"/>
+  <dimension ref="A1:DB60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B26" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A42" sqref="A42"/>
+      <selection pane="bottomRight" activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2443,7 +2458,7 @@
         <v>110</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="F3" t="s">
         <v>128</v>
@@ -2483,7 +2498,7 @@
         <v>110</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="F5" t="s">
         <v>128</v>
@@ -2523,7 +2538,7 @@
         <v>110</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="F7" t="s">
         <v>128</v>
@@ -2531,42 +2546,60 @@
     </row>
     <row r="8" spans="1:106">
       <c r="A8" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
     </row>
     <row r="9" spans="1:106">
       <c r="A9" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
     </row>
     <row r="10" spans="1:106">
       <c r="A10" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
     </row>
     <row r="11" spans="1:106">
       <c r="A11" t="s">
-        <v>176</v>
+        <v>168</v>
+      </c>
+      <c r="G11" t="s">
+        <v>170</v>
+      </c>
+      <c r="H11" t="s">
+        <v>171</v>
+      </c>
+      <c r="I11" t="s">
+        <v>172</v>
+      </c>
+      <c r="J11" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="12" spans="1:106">
       <c r="A12" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="G12" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="H12" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="I12" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="J12" t="s">
-        <v>181</v>
+        <v>173</v>
+      </c>
+      <c r="K12" t="s">
+        <v>201</v>
+      </c>
+      <c r="L12" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="13" spans="1:106">
@@ -2600,7 +2633,7 @@
     </row>
     <row r="14" spans="1:106">
       <c r="A14" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
     </row>
     <row r="15" spans="1:106">
@@ -2707,32 +2740,32 @@
     </row>
     <row r="21" spans="1:9">
       <c r="A21" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
     </row>
     <row r="22" spans="1:9">
       <c r="A22" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
     </row>
     <row r="23" spans="1:9">
       <c r="A23" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
     </row>
     <row r="24" spans="1:9">
       <c r="A24" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
     </row>
     <row r="25" spans="1:9">
       <c r="A25" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
     </row>
     <row r="26" spans="1:9">
       <c r="A26" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -2757,12 +2790,12 @@
     </row>
     <row r="31" spans="1:9">
       <c r="A31" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
     </row>
     <row r="32" spans="1:9">
       <c r="A32" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
     </row>
     <row r="33" spans="1:1">
@@ -2792,57 +2825,57 @@
     </row>
     <row r="38" spans="1:1">
       <c r="A38" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" t="s">
-        <v>165</v>
+        <v>190</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" t="s">
-        <v>166</v>
+        <v>191</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43" t="s">
-        <v>167</v>
+        <v>192</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" t="s">
-        <v>168</v>
+        <v>193</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" t="s">
-        <v>169</v>
+        <v>194</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" t="s">
-        <v>170</v>
+        <v>195</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" t="s">
-        <v>171</v>
+        <v>196</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" t="s">
-        <v>172</v>
+        <v>197</v>
       </c>
     </row>
     <row r="49" spans="1:1">
@@ -2888,6 +2921,21 @@
     <row r="57" spans="1:1">
       <c r="A57" t="s">
         <v>150</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1">
+      <c r="A58" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1">
+      <c r="A59" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1">
+      <c r="A60" t="s">
+        <v>200</v>
       </c>
     </row>
   </sheetData>

--- a/data/raw_results/lanupro_vocabulary_incubations.xlsx
+++ b/data/raw_results/lanupro_vocabulary_incubations.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\my_github_projects\lanupro_vocabulary_2025\data\raw_results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FCD3562-C32A-487F-8CDD-7338979FF1EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{043ABAAC-2191-4BDD-AC8C-1D261F799A26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{06EA7712-9BA5-4E3A-B464-81F94650D082}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{06EA7712-9BA5-4E3A-B464-81F94650D082}"/>
   </bookViews>
   <sheets>
     <sheet name="vocabulary" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="526" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="203">
   <si>
     <t>lanupro_ontology</t>
   </si>
@@ -2082,10 +2082,10 @@
   <dimension ref="A1:DB60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="L13" sqref="L13"/>
+      <selection pane="bottomRight" activeCell="K19" sqref="K19:L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2563,18 +2563,6 @@
       <c r="A11" t="s">
         <v>168</v>
       </c>
-      <c r="G11" t="s">
-        <v>170</v>
-      </c>
-      <c r="H11" t="s">
-        <v>171</v>
-      </c>
-      <c r="I11" t="s">
-        <v>172</v>
-      </c>
-      <c r="J11" t="s">
-        <v>173</v>
-      </c>
     </row>
     <row r="12" spans="1:106">
       <c r="A12" t="s">
@@ -2595,12 +2583,6 @@
       <c r="J12" t="s">
         <v>173</v>
       </c>
-      <c r="K12" t="s">
-        <v>201</v>
-      </c>
-      <c r="L12" t="s">
-        <v>202</v>
-      </c>
     </row>
     <row r="13" spans="1:106">
       <c r="A13" t="s">
@@ -2630,6 +2612,15 @@
       <c r="I13" t="s">
         <v>141</v>
       </c>
+      <c r="J13" t="s">
+        <v>170</v>
+      </c>
+      <c r="K13" t="s">
+        <v>201</v>
+      </c>
+      <c r="L13" t="s">
+        <v>202</v>
+      </c>
     </row>
     <row r="14" spans="1:106">
       <c r="A14" t="s">
@@ -2664,13 +2655,22 @@
       <c r="I15" t="s">
         <v>141</v>
       </c>
+      <c r="J15" t="s">
+        <v>170</v>
+      </c>
+      <c r="K15" t="s">
+        <v>201</v>
+      </c>
+      <c r="L15" t="s">
+        <v>202</v>
+      </c>
     </row>
     <row r="16" spans="1:106">
       <c r="A16" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:12">
       <c r="A17" t="s">
         <v>137</v>
       </c>
@@ -2698,13 +2698,22 @@
       <c r="I17" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="18" spans="1:9">
+      <c r="J17" t="s">
+        <v>170</v>
+      </c>
+      <c r="K17" t="s">
+        <v>201</v>
+      </c>
+      <c r="L17" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
       <c r="A18" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:12">
       <c r="A19" t="s">
         <v>143</v>
       </c>
@@ -2732,68 +2741,77 @@
       <c r="I19" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="20" spans="1:9">
+      <c r="J19" t="s">
+        <v>170</v>
+      </c>
+      <c r="K19" t="s">
+        <v>201</v>
+      </c>
+      <c r="L19" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
       <c r="A20" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:12">
       <c r="A21" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:12">
       <c r="A22" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:12">
       <c r="A23" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:12">
       <c r="A24" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:12">
       <c r="A25" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:12">
       <c r="A26" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:12">
       <c r="A27" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:12">
       <c r="A28" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:12">
       <c r="A29" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:12">
       <c r="A30" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:12">
       <c r="A31" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:12">
       <c r="A32" t="s">
         <v>183</v>
       </c>

--- a/data/raw_results/lanupro_vocabulary_incubations.xlsx
+++ b/data/raw_results/lanupro_vocabulary_incubations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\my_github_projects\lanupro_vocabulary_2025\data\raw_results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{043ABAAC-2191-4BDD-AC8C-1D261F799A26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74B3E0A4-0119-4E48-A99E-2CA3129D949A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{06EA7712-9BA5-4E3A-B464-81F94650D082}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="203">
   <si>
     <t>lanupro_ontology</t>
   </si>
@@ -2085,7 +2085,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K19" sqref="K19:L19"/>
+      <selection pane="bottomRight" activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2619,6 +2619,9 @@
         <v>201</v>
       </c>
       <c r="L13" t="s">
+        <v>171</v>
+      </c>
+      <c r="M13" t="s">
         <v>202</v>
       </c>
     </row>
@@ -2662,6 +2665,9 @@
         <v>201</v>
       </c>
       <c r="L15" t="s">
+        <v>171</v>
+      </c>
+      <c r="M15" t="s">
         <v>202</v>
       </c>
     </row>
@@ -2670,7 +2676,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="17" spans="1:12">
+    <row r="17" spans="1:13">
       <c r="A17" t="s">
         <v>137</v>
       </c>
@@ -2705,15 +2711,18 @@
         <v>201</v>
       </c>
       <c r="L17" t="s">
+        <v>171</v>
+      </c>
+      <c r="M17" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="18" spans="1:12">
+    <row r="18" spans="1:13">
       <c r="A18" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="19" spans="1:12">
+    <row r="19" spans="1:13">
       <c r="A19" t="s">
         <v>143</v>
       </c>
@@ -2748,70 +2757,73 @@
         <v>201</v>
       </c>
       <c r="L19" t="s">
+        <v>171</v>
+      </c>
+      <c r="M19" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="20" spans="1:12">
+    <row r="20" spans="1:13">
       <c r="A20" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="21" spans="1:12">
+    <row r="21" spans="1:13">
       <c r="A21" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="22" spans="1:12">
+    <row r="22" spans="1:13">
       <c r="A22" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="23" spans="1:12">
+    <row r="23" spans="1:13">
       <c r="A23" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="24" spans="1:12">
+    <row r="24" spans="1:13">
       <c r="A24" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="25" spans="1:12">
+    <row r="25" spans="1:13">
       <c r="A25" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="26" spans="1:12">
+    <row r="26" spans="1:13">
       <c r="A26" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="27" spans="1:12">
+    <row r="27" spans="1:13">
       <c r="A27" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="28" spans="1:12">
+    <row r="28" spans="1:13">
       <c r="A28" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="29" spans="1:12">
+    <row r="29" spans="1:13">
       <c r="A29" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="30" spans="1:12">
+    <row r="30" spans="1:13">
       <c r="A30" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="31" spans="1:12">
+    <row r="31" spans="1:13">
       <c r="A31" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="32" spans="1:12">
+    <row r="32" spans="1:13">
       <c r="A32" t="s">
         <v>183</v>
       </c>

--- a/data/raw_results/lanupro_vocabulary_incubations.xlsx
+++ b/data/raw_results/lanupro_vocabulary_incubations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\my_github_projects\lanupro_vocabulary_2025\data\raw_results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74B3E0A4-0119-4E48-A99E-2CA3129D949A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF52588F-04D3-4C2C-8579-FAC560E2F261}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{06EA7712-9BA5-4E3A-B464-81F94650D082}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="206">
   <si>
     <t>lanupro_ontology</t>
   </si>
@@ -655,6 +655,15 @@
   </si>
   <si>
     <t>bromo_01</t>
+  </si>
+  <si>
+    <t>treatment additive 1 in rumen incubation</t>
+  </si>
+  <si>
+    <t>treatment additive 3 in rumen incubation</t>
+  </si>
+  <si>
+    <t>treatment additive 4 in rumen incubation</t>
   </si>
 </sst>
 </file>
@@ -2085,7 +2094,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="M19" sqref="M19"/>
+      <selection pane="bottomRight" activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2598,7 +2607,7 @@
         <v>6</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>138</v>
+        <v>203</v>
       </c>
       <c r="F13" t="s">
         <v>112</v>
@@ -2690,7 +2699,7 @@
         <v>6</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>138</v>
+        <v>204</v>
       </c>
       <c r="F17" t="s">
         <v>112</v>
@@ -2736,7 +2745,7 @@
         <v>6</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>138</v>
+        <v>205</v>
       </c>
       <c r="F19" t="s">
         <v>112</v>

--- a/data/raw_results/lanupro_vocabulary_incubations.xlsx
+++ b/data/raw_results/lanupro_vocabulary_incubations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\my_github_projects\lanupro_vocabulary_2025\data\raw_results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF52588F-04D3-4C2C-8579-FAC560E2F261}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F0357CA-6484-4896-A182-4C8CD4102D03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{06EA7712-9BA5-4E3A-B464-81F94650D082}"/>
   </bookViews>
@@ -609,9 +609,6 @@
     <t>amount of concentrate (mg) added for rumen incubation substrate  (exact)</t>
   </si>
   <si>
-    <t>methane_vfa_mol_mol</t>
-  </si>
-  <si>
     <t>methane_umol_g_dm</t>
   </si>
   <si>
@@ -664,6 +661,9 @@
   </si>
   <si>
     <t>treatment additive 4 in rumen incubation</t>
+  </si>
+  <si>
+    <t>methane_total_vfa_mol_mol</t>
   </si>
 </sst>
 </file>
@@ -2091,10 +2091,10 @@
   <dimension ref="A1:DB60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="C22" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E15" sqref="E15"/>
+      <selection pane="bottomRight" activeCell="A42" sqref="A42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2607,7 +2607,7 @@
         <v>6</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F13" t="s">
         <v>112</v>
@@ -2625,13 +2625,13 @@
         <v>170</v>
       </c>
       <c r="K13" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="L13" t="s">
         <v>171</v>
       </c>
       <c r="M13" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="14" spans="1:106">
@@ -2671,13 +2671,13 @@
         <v>170</v>
       </c>
       <c r="K15" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="L15" t="s">
         <v>171</v>
       </c>
       <c r="M15" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="16" spans="1:106">
@@ -2699,7 +2699,7 @@
         <v>6</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F17" t="s">
         <v>112</v>
@@ -2717,13 +2717,13 @@
         <v>170</v>
       </c>
       <c r="K17" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="L17" t="s">
         <v>171</v>
       </c>
       <c r="M17" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -2745,7 +2745,7 @@
         <v>6</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F19" t="s">
         <v>112</v>
@@ -2763,13 +2763,13 @@
         <v>170</v>
       </c>
       <c r="K19" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="L19" t="s">
         <v>171</v>
       </c>
       <c r="M19" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -2864,57 +2864,57 @@
     </row>
     <row r="38" spans="1:1">
       <c r="A38" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" t="s">
-        <v>187</v>
+        <v>205</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="49" spans="1:1">
@@ -2964,17 +2964,17 @@
     </row>
     <row r="58" spans="1:1">
       <c r="A58" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="60" spans="1:1">
       <c r="A60" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
   </sheetData>

--- a/data/raw_results/lanupro_vocabulary_incubations.xlsx
+++ b/data/raw_results/lanupro_vocabulary_incubations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\my_github_projects\lanupro_vocabulary_2025\data\raw_results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F0357CA-6484-4896-A182-4C8CD4102D03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E4F2D66-29F0-43E3-A1F4-8504365D70C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{06EA7712-9BA5-4E3A-B464-81F94650D082}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="207">
   <si>
     <t>lanupro_ontology</t>
   </si>
@@ -579,9 +579,6 @@
     <t>vol_grav</t>
   </si>
   <si>
-    <t>post_rumen</t>
-  </si>
-  <si>
     <t>rumen_duration</t>
   </si>
   <si>
@@ -664,6 +661,12 @@
   </si>
   <si>
     <t>methane_total_vfa_mol_mol</t>
+  </si>
+  <si>
+    <t>postrumen_digestibility_percent</t>
+  </si>
+  <si>
+    <t>post_rumen_id</t>
   </si>
 </sst>
 </file>
@@ -2088,13 +2091,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CE468F5-6397-4C82-931F-B2CE02F46428}">
-  <dimension ref="A1:DB60"/>
+  <dimension ref="A1:DB61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="C22" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A42" sqref="A42"/>
+      <selection pane="bottomRight" activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2467,7 +2470,7 @@
         <v>110</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F3" t="s">
         <v>128</v>
@@ -2507,7 +2510,7 @@
         <v>110</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F5" t="s">
         <v>128</v>
@@ -2547,7 +2550,7 @@
         <v>110</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F7" t="s">
         <v>128</v>
@@ -2607,7 +2610,7 @@
         <v>6</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F13" t="s">
         <v>112</v>
@@ -2625,13 +2628,13 @@
         <v>170</v>
       </c>
       <c r="K13" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="L13" t="s">
         <v>171</v>
       </c>
       <c r="M13" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="14" spans="1:106">
@@ -2671,13 +2674,13 @@
         <v>170</v>
       </c>
       <c r="K15" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="L15" t="s">
         <v>171</v>
       </c>
       <c r="M15" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="16" spans="1:106">
@@ -2699,7 +2702,7 @@
         <v>6</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F17" t="s">
         <v>112</v>
@@ -2717,13 +2720,13 @@
         <v>170</v>
       </c>
       <c r="K17" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="L17" t="s">
         <v>171</v>
       </c>
       <c r="M17" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -2745,7 +2748,7 @@
         <v>6</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F19" t="s">
         <v>112</v>
@@ -2763,13 +2766,13 @@
         <v>170</v>
       </c>
       <c r="K19" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="L19" t="s">
         <v>171</v>
       </c>
       <c r="M19" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -2784,27 +2787,27 @@
     </row>
     <row r="22" spans="1:13">
       <c r="A22" t="s">
-        <v>177</v>
+        <v>206</v>
       </c>
     </row>
     <row r="23" spans="1:13">
       <c r="A23" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="24" spans="1:13">
       <c r="A24" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="25" spans="1:13">
       <c r="A25" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="26" spans="1:13">
       <c r="A26" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="27" spans="1:13">
@@ -2829,12 +2832,12 @@
     </row>
     <row r="31" spans="1:13">
       <c r="A31" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="32" spans="1:13">
       <c r="A32" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="33" spans="1:1">
@@ -2864,57 +2867,57 @@
     </row>
     <row r="38" spans="1:1">
       <c r="A38" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="49" spans="1:1">
@@ -2964,17 +2967,22 @@
     </row>
     <row r="58" spans="1:1">
       <c r="A58" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="60" spans="1:1">
       <c r="A60" t="s">
-        <v>199</v>
+        <v>198</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1">
+      <c r="A61" t="s">
+        <v>205</v>
       </c>
     </row>
   </sheetData>

--- a/data/raw_results/lanupro_vocabulary_incubations.xlsx
+++ b/data/raw_results/lanupro_vocabulary_incubations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\my_github_projects\lanupro_vocabulary_2025\data\raw_results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E4F2D66-29F0-43E3-A1F4-8504365D70C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A08BC5F-1647-4BA4-9F39-7FDFAB4F9113}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{06EA7712-9BA5-4E3A-B464-81F94650D082}"/>
   </bookViews>

--- a/data/raw_results/lanupro_vocabulary_incubations.xlsx
+++ b/data/raw_results/lanupro_vocabulary_incubations.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\my_github_projects\lanupro_vocabulary_2025\data\raw_results\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SH\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A08BC5F-1647-4BA4-9F39-7FDFAB4F9113}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{304AB343-0E4A-4EB9-8BDD-B81392043740}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{06EA7712-9BA5-4E3A-B464-81F94650D082}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="214">
   <si>
     <t>lanupro_ontology</t>
   </si>
@@ -667,6 +667,27 @@
   </si>
   <si>
     <t>post_rumen_id</t>
+  </si>
+  <si>
+    <t>incolum_id</t>
+  </si>
+  <si>
+    <t>incolum_date</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>id of the inoculum collected, used for tracing extra inoculum characteristics in motherfile</t>
+  </si>
+  <si>
+    <t>date of the inoculum collection, format &lt;dd/mm/yyyy&gt;</t>
+  </si>
+  <si>
+    <t>treatment replacement id (treatment which replaces a certain amount of substrate)</t>
+  </si>
+  <si>
+    <t>amount of treatment replacement added</t>
   </si>
 </sst>
 </file>
@@ -2091,13 +2112,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CE468F5-6397-4C82-931F-B2CE02F46428}">
-  <dimension ref="A1:DB61"/>
+  <dimension ref="A1:DB63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B9" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A23" sqref="A23"/>
+      <selection pane="bottomRight" activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2444,7 +2465,7 @@
         <v>112</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>108</v>
       </c>
       <c r="D2" t="s">
         <v>6</v>
@@ -2484,7 +2505,7 @@
         <v>112</v>
       </c>
       <c r="C4" t="s">
-        <v>5</v>
+        <v>108</v>
       </c>
       <c r="D4" t="s">
         <v>6</v>
@@ -2524,7 +2545,7 @@
         <v>112</v>
       </c>
       <c r="C6" t="s">
-        <v>5</v>
+        <v>108</v>
       </c>
       <c r="D6" t="s">
         <v>6</v>
@@ -2556,95 +2577,107 @@
         <v>128</v>
       </c>
     </row>
-    <row r="8" spans="1:106">
+    <row r="8" spans="1:106" ht="28.8">
       <c r="A8" t="s">
-        <v>165</v>
+        <v>207</v>
+      </c>
+      <c r="B8" t="s">
+        <v>112</v>
+      </c>
+      <c r="C8" t="s">
+        <v>108</v>
+      </c>
+      <c r="D8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="9" spans="1:106">
       <c r="A9" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="10" spans="1:106">
+        <v>208</v>
+      </c>
+      <c r="B9" t="s">
+        <v>112</v>
+      </c>
+      <c r="C9" t="s">
+        <v>209</v>
+      </c>
+      <c r="D9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="10" spans="1:106" ht="28.8">
       <c r="A10" t="s">
-        <v>167</v>
+        <v>165</v>
+      </c>
+      <c r="B10" t="s">
+        <v>112</v>
+      </c>
+      <c r="C10" t="s">
+        <v>108</v>
+      </c>
+      <c r="D10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="11" spans="1:106">
       <c r="A11" t="s">
-        <v>168</v>
+        <v>166</v>
+      </c>
+      <c r="B11" t="s">
+        <v>112</v>
+      </c>
+      <c r="C11" t="s">
+        <v>109</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="F11" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="12" spans="1:106">
       <c r="A12" t="s">
-        <v>169</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="G12" t="s">
-        <v>170</v>
-      </c>
-      <c r="H12" t="s">
-        <v>171</v>
-      </c>
-      <c r="I12" t="s">
-        <v>172</v>
-      </c>
-      <c r="J12" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
     </row>
     <row r="13" spans="1:106">
       <c r="A13" t="s">
-        <v>135</v>
-      </c>
-      <c r="B13" t="s">
-        <v>112</v>
-      </c>
-      <c r="C13" t="s">
-        <v>7</v>
-      </c>
-      <c r="D13" t="s">
-        <v>6</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="F13" t="s">
-        <v>112</v>
-      </c>
-      <c r="G13" t="s">
-        <v>139</v>
-      </c>
-      <c r="H13" t="s">
-        <v>140</v>
-      </c>
-      <c r="I13" t="s">
-        <v>141</v>
-      </c>
-      <c r="J13" t="s">
-        <v>170</v>
-      </c>
-      <c r="K13" t="s">
-        <v>199</v>
-      </c>
-      <c r="L13" t="s">
-        <v>171</v>
-      </c>
-      <c r="M13" t="s">
-        <v>200</v>
+        <v>168</v>
       </c>
     </row>
     <row r="14" spans="1:106">
       <c r="A14" t="s">
-        <v>175</v>
+        <v>169</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="G14" t="s">
+        <v>170</v>
+      </c>
+      <c r="H14" t="s">
+        <v>171</v>
+      </c>
+      <c r="I14" t="s">
+        <v>172</v>
+      </c>
+      <c r="J14" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="15" spans="1:106">
       <c r="A15" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B15" t="s">
         <v>112</v>
@@ -2656,7 +2689,7 @@
         <v>6</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>138</v>
+        <v>201</v>
       </c>
       <c r="F15" t="s">
         <v>112</v>
@@ -2685,12 +2718,12 @@
     </row>
     <row r="16" spans="1:106">
       <c r="A16" t="s">
-        <v>162</v>
+        <v>175</v>
       </c>
     </row>
     <row r="17" spans="1:13">
       <c r="A17" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B17" t="s">
         <v>112</v>
@@ -2702,7 +2735,7 @@
         <v>6</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>202</v>
+        <v>138</v>
       </c>
       <c r="F17" t="s">
         <v>112</v>
@@ -2731,12 +2764,12 @@
     </row>
     <row r="18" spans="1:13">
       <c r="A18" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="19" spans="1:13">
       <c r="A19" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="B19" t="s">
         <v>112</v>
@@ -2748,7 +2781,7 @@
         <v>6</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F19" t="s">
         <v>112</v>
@@ -2777,211 +2810,257 @@
     </row>
     <row r="20" spans="1:13">
       <c r="A20" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="21" spans="1:13">
       <c r="A21" t="s">
-        <v>176</v>
+        <v>143</v>
+      </c>
+      <c r="B21" t="s">
+        <v>112</v>
+      </c>
+      <c r="C21" t="s">
+        <v>7</v>
+      </c>
+      <c r="D21" t="s">
+        <v>6</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="F21" t="s">
+        <v>112</v>
+      </c>
+      <c r="G21" t="s">
+        <v>139</v>
+      </c>
+      <c r="H21" t="s">
+        <v>140</v>
+      </c>
+      <c r="I21" t="s">
+        <v>141</v>
+      </c>
+      <c r="J21" t="s">
+        <v>170</v>
+      </c>
+      <c r="K21" t="s">
+        <v>199</v>
+      </c>
+      <c r="L21" t="s">
+        <v>171</v>
+      </c>
+      <c r="M21" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="22" spans="1:13">
       <c r="A22" t="s">
-        <v>206</v>
+        <v>164</v>
       </c>
     </row>
     <row r="23" spans="1:13">
       <c r="A23" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="24" spans="1:13">
       <c r="A24" t="s">
-        <v>178</v>
+        <v>206</v>
       </c>
     </row>
     <row r="25" spans="1:13">
       <c r="A25" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="26" spans="1:13">
       <c r="A26" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="27" spans="1:13">
       <c r="A27" t="s">
-        <v>146</v>
+        <v>179</v>
       </c>
     </row>
     <row r="28" spans="1:13">
       <c r="A28" t="s">
-        <v>144</v>
+        <v>180</v>
       </c>
     </row>
     <row r="29" spans="1:13">
       <c r="A29" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="30" spans="1:13">
       <c r="A30" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="31" spans="1:13">
       <c r="A31" t="s">
-        <v>181</v>
+        <v>147</v>
       </c>
     </row>
     <row r="32" spans="1:13">
       <c r="A32" t="s">
-        <v>182</v>
+        <v>145</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" t="s">
-        <v>148</v>
+        <v>181</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" t="s">
-        <v>149</v>
+        <v>182</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" t="s">
-        <v>186</v>
+        <v>152</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" t="s">
-        <v>187</v>
+        <v>153</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" t="s">
-        <v>204</v>
+        <v>187</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43" t="s">
-        <v>190</v>
+        <v>204</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49" t="s">
-        <v>154</v>
+        <v>194</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50" t="s">
-        <v>155</v>
+        <v>195</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58" t="s">
-        <v>196</v>
+        <v>161</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59" t="s">
-        <v>197</v>
+        <v>150</v>
       </c>
     </row>
     <row r="60" spans="1:1">
       <c r="A60" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="61" spans="1:1">
       <c r="A61" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1">
+      <c r="A62" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1">
+      <c r="A63" t="s">
         <v>205</v>
       </c>
     </row>
@@ -2995,13 +3074,13 @@
           <x14:formula1>
             <xm:f>description!$E$7:$H$7</xm:f>
           </x14:formula1>
-          <xm:sqref>D4 D6 D2</xm:sqref>
+          <xm:sqref>D2:D1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{63FF082E-FE70-4372-A8CC-717DC18F28AE}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{A4C69EF4-7A1D-4237-84FA-A10B28653487}">
           <x14:formula1>
-            <xm:f>description!$E$6:$H$6</xm:f>
+            <xm:f>description!$E$6:$I$6</xm:f>
           </x14:formula1>
-          <xm:sqref>C2:C12</xm:sqref>
+          <xm:sqref>C2:C1048576</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -3011,10 +3090,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A68D4BA7-81A7-496D-83F7-4CE2A3B40B1B}">
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -3025,7 +3104,7 @@
     <col min="5" max="5" width="15.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -3050,8 +3129,11 @@
       <c r="H1" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -3065,7 +3147,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:9">
       <c r="A3" t="s">
         <v>113</v>
       </c>
@@ -3079,7 +3161,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="57.6">
+    <row r="4" spans="1:9" ht="57.6">
       <c r="A4" t="s">
         <v>114</v>
       </c>
@@ -3093,7 +3175,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="57.6">
+    <row r="5" spans="1:9" ht="57.6">
       <c r="A5" t="s">
         <v>115</v>
       </c>
@@ -3107,7 +3189,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:9">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -3132,8 +3214,11 @@
       <c r="H6" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="7" spans="1:8">
+      <c r="I6" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" t="s">
         <v>1</v>
       </c>
@@ -3153,7 +3238,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:9">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -3167,7 +3252,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:9">
       <c r="A9" t="s">
         <v>111</v>
       </c>
@@ -3181,7 +3266,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:9">
       <c r="A10" t="s">
         <v>116</v>
       </c>

--- a/data/raw_results/lanupro_vocabulary_incubations.xlsx
+++ b/data/raw_results/lanupro_vocabulary_incubations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SH\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{304AB343-0E4A-4EB9-8BDD-B81392043740}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9365B864-36D2-4454-954F-89D88719327A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{06EA7712-9BA5-4E3A-B464-81F94650D082}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="223">
   <si>
     <t>lanupro_ontology</t>
   </si>
@@ -453,9 +453,6 @@
     <t>sample_id of the concentrate used as rumen incubation substrate</t>
   </si>
   <si>
-    <t>trt_add_1</t>
-  </si>
-  <si>
     <t>trt_add_2</t>
   </si>
   <si>
@@ -688,6 +685,36 @@
   </si>
   <si>
     <t>amount of treatment replacement added</t>
+  </si>
+  <si>
+    <t>3_nop_01</t>
+  </si>
+  <si>
+    <t>3_nop_02</t>
+  </si>
+  <si>
+    <t>bromo_02</t>
+  </si>
+  <si>
+    <t>trt_add_1_id</t>
+  </si>
+  <si>
+    <t>trt_add_1_type</t>
+  </si>
+  <si>
+    <t>bromo</t>
+  </si>
+  <si>
+    <t>3_nop</t>
+  </si>
+  <si>
+    <t>trt_add_2_id</t>
+  </si>
+  <si>
+    <t>trt_add_3_id</t>
+  </si>
+  <si>
+    <t>trt_add_4_id</t>
   </si>
 </sst>
 </file>
@@ -1516,7 +1543,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1525,6 +1552,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="112">
     <cellStyle name="20% - Accent1 2" xfId="19" xr:uid="{77E55010-737E-41F1-998F-D4B5A5EBB76A}"/>
@@ -2112,13 +2140,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CE468F5-6397-4C82-931F-B2CE02F46428}">
-  <dimension ref="A1:DB63"/>
+  <dimension ref="A1:DB67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B12" sqref="B12"/>
+      <selection pane="bottomRight" activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2491,7 +2519,7 @@
         <v>110</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F3" t="s">
         <v>128</v>
@@ -2531,7 +2559,7 @@
         <v>110</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F5" t="s">
         <v>128</v>
@@ -2571,7 +2599,7 @@
         <v>110</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F7" t="s">
         <v>128</v>
@@ -2579,7 +2607,7 @@
     </row>
     <row r="8" spans="1:106" ht="28.8">
       <c r="A8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B8" t="s">
         <v>112</v>
@@ -2591,29 +2619,29 @@
         <v>6</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="9" spans="1:106">
       <c r="A9" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B9" t="s">
         <v>112</v>
       </c>
       <c r="C9" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D9" t="s">
         <v>6</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="10" spans="1:106" ht="28.8">
       <c r="A10" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B10" t="s">
         <v>112</v>
@@ -2625,12 +2653,12 @@
         <v>6</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="11" spans="1:106">
       <c r="A11" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B11" t="s">
         <v>112</v>
@@ -2639,7 +2667,7 @@
         <v>109</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F11" t="s">
         <v>128</v>
@@ -2647,37 +2675,37 @@
     </row>
     <row r="12" spans="1:106">
       <c r="A12" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="13" spans="1:106">
       <c r="A13" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="14" spans="1:106">
       <c r="A14" t="s">
+        <v>168</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="G14" t="s">
         <v>169</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="G14" t="s">
+      <c r="H14" t="s">
         <v>170</v>
       </c>
-      <c r="H14" t="s">
+      <c r="I14" t="s">
         <v>171</v>
       </c>
-      <c r="I14" t="s">
+      <c r="J14" t="s">
         <v>172</v>
-      </c>
-      <c r="J14" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="15" spans="1:106">
       <c r="A15" t="s">
-        <v>135</v>
+        <v>217</v>
       </c>
       <c r="B15" t="s">
         <v>112</v>
@@ -2689,133 +2717,132 @@
         <v>6</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F15" t="s">
         <v>112</v>
       </c>
       <c r="G15" t="s">
+        <v>138</v>
+      </c>
+      <c r="H15" t="s">
         <v>139</v>
       </c>
-      <c r="H15" t="s">
+      <c r="I15" t="s">
         <v>140</v>
       </c>
-      <c r="I15" t="s">
-        <v>141</v>
-      </c>
       <c r="J15" t="s">
+        <v>169</v>
+      </c>
+      <c r="K15" t="s">
+        <v>198</v>
+      </c>
+      <c r="L15" t="s">
         <v>170</v>
       </c>
-      <c r="K15" t="s">
-        <v>199</v>
-      </c>
-      <c r="L15" t="s">
-        <v>171</v>
-      </c>
       <c r="M15" t="s">
-        <v>200</v>
+        <v>218</v>
+      </c>
+      <c r="N15" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="16" spans="1:106">
       <c r="A16" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>216</v>
+      </c>
+      <c r="G16" t="s">
+        <v>199</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="I16" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="J16" s="4" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16">
       <c r="A17" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16">
+      <c r="A18" t="s">
+        <v>135</v>
+      </c>
+      <c r="B18" t="s">
+        <v>112</v>
+      </c>
+      <c r="C18" t="s">
+        <v>7</v>
+      </c>
+      <c r="D18" t="s">
+        <v>6</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="F18" t="s">
+        <v>112</v>
+      </c>
+      <c r="G18" t="s">
+        <v>138</v>
+      </c>
+      <c r="H18" t="s">
+        <v>139</v>
+      </c>
+      <c r="I18" t="s">
+        <v>140</v>
+      </c>
+      <c r="J18" t="s">
+        <v>169</v>
+      </c>
+      <c r="K18" t="s">
+        <v>198</v>
+      </c>
+      <c r="L18" t="s">
+        <v>170</v>
+      </c>
+      <c r="M18" t="s">
+        <v>218</v>
+      </c>
+      <c r="N18" t="s">
+        <v>219</v>
+      </c>
+      <c r="O18" s="4"/>
+      <c r="P18" s="4"/>
+    </row>
+    <row r="19" spans="1:16">
+      <c r="A19" t="s">
+        <v>220</v>
+      </c>
+      <c r="G19" t="s">
+        <v>199</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="I19" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="J19" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="N19" s="4"/>
+      <c r="O19" s="4"/>
+      <c r="P19" s="4"/>
+    </row>
+    <row r="20" spans="1:16">
+      <c r="A20" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16">
+      <c r="A21" t="s">
         <v>136</v>
-      </c>
-      <c r="B17" t="s">
-        <v>112</v>
-      </c>
-      <c r="C17" t="s">
-        <v>7</v>
-      </c>
-      <c r="D17" t="s">
-        <v>6</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="F17" t="s">
-        <v>112</v>
-      </c>
-      <c r="G17" t="s">
-        <v>139</v>
-      </c>
-      <c r="H17" t="s">
-        <v>140</v>
-      </c>
-      <c r="I17" t="s">
-        <v>141</v>
-      </c>
-      <c r="J17" t="s">
-        <v>170</v>
-      </c>
-      <c r="K17" t="s">
-        <v>199</v>
-      </c>
-      <c r="L17" t="s">
-        <v>171</v>
-      </c>
-      <c r="M17" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
-      <c r="A18" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
-      <c r="A19" t="s">
-        <v>137</v>
-      </c>
-      <c r="B19" t="s">
-        <v>112</v>
-      </c>
-      <c r="C19" t="s">
-        <v>7</v>
-      </c>
-      <c r="D19" t="s">
-        <v>6</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="F19" t="s">
-        <v>112</v>
-      </c>
-      <c r="G19" t="s">
-        <v>139</v>
-      </c>
-      <c r="H19" t="s">
-        <v>140</v>
-      </c>
-      <c r="I19" t="s">
-        <v>141</v>
-      </c>
-      <c r="J19" t="s">
-        <v>170</v>
-      </c>
-      <c r="K19" t="s">
-        <v>199</v>
-      </c>
-      <c r="L19" t="s">
-        <v>171</v>
-      </c>
-      <c r="M19" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
-      <c r="A20" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
-      <c r="A21" t="s">
-        <v>143</v>
       </c>
       <c r="B21" t="s">
         <v>112</v>
@@ -2827,241 +2854,337 @@
         <v>6</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="F21" t="s">
         <v>112</v>
       </c>
       <c r="G21" t="s">
+        <v>138</v>
+      </c>
+      <c r="H21" t="s">
         <v>139</v>
       </c>
-      <c r="H21" t="s">
+      <c r="I21" t="s">
         <v>140</v>
       </c>
-      <c r="I21" t="s">
-        <v>141</v>
-      </c>
       <c r="J21" t="s">
+        <v>169</v>
+      </c>
+      <c r="K21" t="s">
+        <v>198</v>
+      </c>
+      <c r="L21" t="s">
         <v>170</v>
       </c>
-      <c r="K21" t="s">
+      <c r="M21" t="s">
+        <v>218</v>
+      </c>
+      <c r="N21" t="s">
+        <v>219</v>
+      </c>
+      <c r="O21" s="4"/>
+      <c r="P21" s="4"/>
+    </row>
+    <row r="22" spans="1:16">
+      <c r="A22" t="s">
+        <v>221</v>
+      </c>
+      <c r="G22" t="s">
         <v>199</v>
       </c>
-      <c r="L21" t="s">
-        <v>171</v>
-      </c>
-      <c r="M21" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
-      <c r="A22" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+      <c r="H22" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="I22" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="J22" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="N22" s="4"/>
+      <c r="O22" s="4"/>
+      <c r="P22" s="4"/>
+    </row>
+    <row r="23" spans="1:16">
       <c r="A23" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16">
+      <c r="A24" t="s">
+        <v>142</v>
+      </c>
+      <c r="B24" t="s">
+        <v>112</v>
+      </c>
+      <c r="C24" t="s">
+        <v>7</v>
+      </c>
+      <c r="D24" t="s">
+        <v>6</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="F24" t="s">
+        <v>112</v>
+      </c>
+      <c r="G24" t="s">
+        <v>138</v>
+      </c>
+      <c r="H24" t="s">
+        <v>139</v>
+      </c>
+      <c r="I24" t="s">
+        <v>140</v>
+      </c>
+      <c r="J24" t="s">
+        <v>169</v>
+      </c>
+      <c r="K24" t="s">
+        <v>198</v>
+      </c>
+      <c r="L24" t="s">
+        <v>170</v>
+      </c>
+      <c r="M24" t="s">
+        <v>218</v>
+      </c>
+      <c r="N24" t="s">
+        <v>219</v>
+      </c>
+      <c r="O24" s="4"/>
+      <c r="P24" s="4"/>
+    </row>
+    <row r="25" spans="1:16">
+      <c r="A25" t="s">
+        <v>222</v>
+      </c>
+      <c r="G25" t="s">
+        <v>199</v>
+      </c>
+      <c r="H25" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="I25" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="J25" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="N25" s="4"/>
+      <c r="O25" s="4"/>
+      <c r="P25" s="4"/>
+    </row>
+    <row r="26" spans="1:16">
+      <c r="A26" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16">
+      <c r="A27" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16">
+      <c r="A28" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16">
+      <c r="A29" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="24" spans="1:13">
-      <c r="A24" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
-      <c r="A25" t="s">
+    <row r="30" spans="1:16">
+      <c r="A30" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="26" spans="1:13">
-      <c r="A26" t="s">
+    <row r="31" spans="1:16">
+      <c r="A31" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="27" spans="1:13">
-      <c r="A27" t="s">
+    <row r="32" spans="1:16">
+      <c r="A32" t="s">
         <v>179</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13">
-      <c r="A28" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
-      <c r="A29" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
-      <c r="A30" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
-      <c r="A31" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
-      <c r="A32" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" t="s">
-        <v>181</v>
+        <v>145</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" t="s">
-        <v>182</v>
+        <v>143</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" t="s">
-        <v>151</v>
+        <v>180</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" t="s">
-        <v>152</v>
+        <v>181</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" t="s">
-        <v>186</v>
+        <v>148</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" t="s">
-        <v>187</v>
+        <v>150</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" t="s">
-        <v>188</v>
+        <v>151</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43" t="s">
-        <v>204</v>
+        <v>152</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" t="s">
-        <v>192</v>
+        <v>203</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51" t="s">
-        <v>154</v>
+        <v>191</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52" t="s">
-        <v>155</v>
+        <v>192</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53" t="s">
-        <v>156</v>
+        <v>193</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54" t="s">
-        <v>157</v>
+        <v>194</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
     </row>
     <row r="60" spans="1:1">
       <c r="A60" t="s">
-        <v>196</v>
+        <v>158</v>
       </c>
     </row>
     <row r="61" spans="1:1">
       <c r="A61" t="s">
-        <v>197</v>
+        <v>159</v>
       </c>
     </row>
     <row r="62" spans="1:1">
       <c r="A62" t="s">
-        <v>198</v>
+        <v>160</v>
       </c>
     </row>
     <row r="63" spans="1:1">
       <c r="A63" t="s">
-        <v>205</v>
+        <v>149</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1">
+      <c r="A64" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1">
+      <c r="A65" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1">
+      <c r="A66" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1">
+      <c r="A67" t="s">
+        <v>204</v>
       </c>
     </row>
   </sheetData>
@@ -3215,7 +3338,7 @@
         <v>109</v>
       </c>
       <c r="I6" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -3277,7 +3400,7 @@
         <v>6</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
   </sheetData>

--- a/data/raw_results/lanupro_vocabulary_incubations.xlsx
+++ b/data/raw_results/lanupro_vocabulary_incubations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SH\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9365B864-36D2-4454-954F-89D88719327A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43DCF119-F254-4A14-B431-14233F6030B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{06EA7712-9BA5-4E3A-B464-81F94650D082}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="224">
   <si>
     <t>lanupro_ontology</t>
   </si>
@@ -715,6 +715,9 @@
   </si>
   <si>
     <t>trt_add_4_id</t>
+  </si>
+  <si>
+    <t>trt_rep_1_type</t>
   </si>
 </sst>
 </file>
@@ -1543,7 +1546,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1552,7 +1555,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="112">
     <cellStyle name="20% - Accent1 2" xfId="19" xr:uid="{77E55010-737E-41F1-998F-D4B5A5EBB76A}"/>
@@ -2140,13 +2142,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CE468F5-6397-4C82-931F-B2CE02F46428}">
-  <dimension ref="A1:DB67"/>
+  <dimension ref="A1:DB68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B11" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="E6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H31" sqref="H31"/>
+      <selection pane="bottomRight" activeCell="G11" sqref="G11:J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2639,551 +2641,577 @@
         <v>210</v>
       </c>
     </row>
-    <row r="10" spans="1:106" ht="28.8">
+    <row r="10" spans="1:106">
       <c r="A10" t="s">
+        <v>223</v>
+      </c>
+      <c r="G10" t="s">
+        <v>138</v>
+      </c>
+      <c r="H10" t="s">
+        <v>139</v>
+      </c>
+      <c r="I10" t="s">
+        <v>140</v>
+      </c>
+      <c r="J10" t="s">
+        <v>169</v>
+      </c>
+      <c r="K10" t="s">
+        <v>198</v>
+      </c>
+      <c r="L10" t="s">
+        <v>170</v>
+      </c>
+      <c r="M10" t="s">
+        <v>218</v>
+      </c>
+      <c r="N10" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="11" spans="1:106" ht="28.8">
+      <c r="A11" t="s">
         <v>164</v>
-      </c>
-      <c r="B10" t="s">
-        <v>112</v>
-      </c>
-      <c r="C10" t="s">
-        <v>108</v>
-      </c>
-      <c r="D10" t="s">
-        <v>6</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="11" spans="1:106">
-      <c r="A11" t="s">
-        <v>165</v>
       </c>
       <c r="B11" t="s">
         <v>112</v>
       </c>
       <c r="C11" t="s">
-        <v>109</v>
+        <v>108</v>
+      </c>
+      <c r="D11" t="s">
+        <v>6</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="F11" t="s">
-        <v>128</v>
+        <v>211</v>
+      </c>
+      <c r="G11" t="s">
+        <v>199</v>
+      </c>
+      <c r="H11" t="s">
+        <v>215</v>
+      </c>
+      <c r="I11" t="s">
+        <v>213</v>
+      </c>
+      <c r="J11" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="12" spans="1:106">
       <c r="A12" t="s">
-        <v>166</v>
+        <v>165</v>
+      </c>
+      <c r="B12" t="s">
+        <v>112</v>
+      </c>
+      <c r="C12" t="s">
+        <v>109</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="F12" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="13" spans="1:106">
       <c r="A13" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="14" spans="1:106">
       <c r="A14" t="s">
-        <v>168</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="G14" t="s">
-        <v>169</v>
-      </c>
-      <c r="H14" t="s">
-        <v>170</v>
-      </c>
-      <c r="I14" t="s">
-        <v>171</v>
-      </c>
-      <c r="J14" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
     </row>
     <row r="15" spans="1:106">
       <c r="A15" t="s">
-        <v>217</v>
-      </c>
-      <c r="B15" t="s">
-        <v>112</v>
-      </c>
-      <c r="C15" t="s">
-        <v>7</v>
-      </c>
-      <c r="D15" t="s">
-        <v>6</v>
+        <v>168</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="F15" t="s">
-        <v>112</v>
+        <v>173</v>
       </c>
       <c r="G15" t="s">
-        <v>138</v>
+        <v>169</v>
       </c>
       <c r="H15" t="s">
-        <v>139</v>
+        <v>170</v>
       </c>
       <c r="I15" t="s">
-        <v>140</v>
+        <v>171</v>
       </c>
       <c r="J15" t="s">
-        <v>169</v>
-      </c>
-      <c r="K15" t="s">
-        <v>198</v>
-      </c>
-      <c r="L15" t="s">
-        <v>170</v>
-      </c>
-      <c r="M15" t="s">
-        <v>218</v>
-      </c>
-      <c r="N15" t="s">
-        <v>219</v>
+        <v>172</v>
       </c>
     </row>
     <row r="16" spans="1:106">
       <c r="A16" t="s">
+        <v>217</v>
+      </c>
+      <c r="B16" t="s">
+        <v>112</v>
+      </c>
+      <c r="C16" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16" t="s">
+        <v>6</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="F16" t="s">
+        <v>112</v>
+      </c>
+      <c r="G16" t="s">
+        <v>138</v>
+      </c>
+      <c r="H16" t="s">
+        <v>139</v>
+      </c>
+      <c r="I16" t="s">
+        <v>140</v>
+      </c>
+      <c r="J16" t="s">
+        <v>169</v>
+      </c>
+      <c r="K16" t="s">
+        <v>198</v>
+      </c>
+      <c r="L16" t="s">
+        <v>170</v>
+      </c>
+      <c r="M16" t="s">
+        <v>218</v>
+      </c>
+      <c r="N16" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
+      <c r="A17" t="s">
         <v>216</v>
       </c>
-      <c r="G16" t="s">
+      <c r="G17" t="s">
         <v>199</v>
       </c>
-      <c r="H16" s="4" t="s">
+      <c r="H17" t="s">
         <v>215</v>
       </c>
-      <c r="I16" s="4" t="s">
+      <c r="I17" t="s">
         <v>213</v>
       </c>
-      <c r="J16" s="4" t="s">
+      <c r="J17" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="17" spans="1:16">
-      <c r="A17" t="s">
+    <row r="18" spans="1:14">
+      <c r="A18" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="18" spans="1:16">
-      <c r="A18" t="s">
+    <row r="19" spans="1:14">
+      <c r="A19" t="s">
         <v>135</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B19" t="s">
         <v>112</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C19" t="s">
         <v>7</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D19" t="s">
         <v>6</v>
       </c>
-      <c r="E18" s="3" t="s">
+      <c r="E19" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="F18" t="s">
+      <c r="F19" t="s">
         <v>112</v>
       </c>
-      <c r="G18" t="s">
+      <c r="G19" t="s">
         <v>138</v>
       </c>
-      <c r="H18" t="s">
+      <c r="H19" t="s">
         <v>139</v>
       </c>
-      <c r="I18" t="s">
+      <c r="I19" t="s">
         <v>140</v>
       </c>
-      <c r="J18" t="s">
+      <c r="J19" t="s">
         <v>169</v>
       </c>
-      <c r="K18" t="s">
+      <c r="K19" t="s">
         <v>198</v>
       </c>
-      <c r="L18" t="s">
+      <c r="L19" t="s">
         <v>170</v>
       </c>
-      <c r="M18" t="s">
+      <c r="M19" t="s">
         <v>218</v>
       </c>
-      <c r="N18" t="s">
+      <c r="N19" t="s">
         <v>219</v>
       </c>
-      <c r="O18" s="4"/>
-      <c r="P18" s="4"/>
-    </row>
-    <row r="19" spans="1:16">
-      <c r="A19" t="s">
+    </row>
+    <row r="20" spans="1:14">
+      <c r="A20" t="s">
         <v>220</v>
       </c>
-      <c r="G19" t="s">
+      <c r="G20" t="s">
         <v>199</v>
       </c>
-      <c r="H19" s="4" t="s">
+      <c r="H20" t="s">
         <v>215</v>
       </c>
-      <c r="I19" s="4" t="s">
+      <c r="I20" t="s">
         <v>213</v>
       </c>
-      <c r="J19" s="4" t="s">
+      <c r="J20" t="s">
         <v>214</v>
       </c>
-      <c r="N19" s="4"/>
-      <c r="O19" s="4"/>
-      <c r="P19" s="4"/>
-    </row>
-    <row r="20" spans="1:16">
-      <c r="A20" t="s">
+    </row>
+    <row r="21" spans="1:14">
+      <c r="A21" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="21" spans="1:16">
-      <c r="A21" t="s">
+    <row r="22" spans="1:14">
+      <c r="A22" t="s">
         <v>136</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B22" t="s">
         <v>112</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C22" t="s">
         <v>7</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D22" t="s">
         <v>6</v>
       </c>
-      <c r="E21" s="3" t="s">
+      <c r="E22" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="F21" t="s">
+      <c r="F22" t="s">
         <v>112</v>
       </c>
-      <c r="G21" t="s">
+      <c r="G22" t="s">
         <v>138</v>
       </c>
-      <c r="H21" t="s">
+      <c r="H22" t="s">
         <v>139</v>
       </c>
-      <c r="I21" t="s">
+      <c r="I22" t="s">
         <v>140</v>
       </c>
-      <c r="J21" t="s">
+      <c r="J22" t="s">
         <v>169</v>
       </c>
-      <c r="K21" t="s">
+      <c r="K22" t="s">
         <v>198</v>
       </c>
-      <c r="L21" t="s">
+      <c r="L22" t="s">
         <v>170</v>
       </c>
-      <c r="M21" t="s">
+      <c r="M22" t="s">
         <v>218</v>
       </c>
-      <c r="N21" t="s">
+      <c r="N22" t="s">
         <v>219</v>
       </c>
-      <c r="O21" s="4"/>
-      <c r="P21" s="4"/>
-    </row>
-    <row r="22" spans="1:16">
-      <c r="A22" t="s">
+    </row>
+    <row r="23" spans="1:14">
+      <c r="A23" t="s">
         <v>221</v>
       </c>
-      <c r="G22" t="s">
+      <c r="G23" t="s">
         <v>199</v>
       </c>
-      <c r="H22" s="4" t="s">
+      <c r="H23" t="s">
         <v>215</v>
       </c>
-      <c r="I22" s="4" t="s">
+      <c r="I23" t="s">
         <v>213</v>
       </c>
-      <c r="J22" s="4" t="s">
+      <c r="J23" t="s">
         <v>214</v>
       </c>
-      <c r="N22" s="4"/>
-      <c r="O22" s="4"/>
-      <c r="P22" s="4"/>
-    </row>
-    <row r="23" spans="1:16">
-      <c r="A23" t="s">
+    </row>
+    <row r="24" spans="1:14">
+      <c r="A24" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="24" spans="1:16">
-      <c r="A24" t="s">
+    <row r="25" spans="1:14">
+      <c r="A25" t="s">
         <v>142</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B25" t="s">
         <v>112</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C25" t="s">
         <v>7</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D25" t="s">
         <v>6</v>
       </c>
-      <c r="E24" s="3" t="s">
+      <c r="E25" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="F24" t="s">
+      <c r="F25" t="s">
         <v>112</v>
       </c>
-      <c r="G24" t="s">
+      <c r="G25" t="s">
         <v>138</v>
       </c>
-      <c r="H24" t="s">
+      <c r="H25" t="s">
         <v>139</v>
       </c>
-      <c r="I24" t="s">
+      <c r="I25" t="s">
         <v>140</v>
       </c>
-      <c r="J24" t="s">
+      <c r="J25" t="s">
         <v>169</v>
       </c>
-      <c r="K24" t="s">
+      <c r="K25" t="s">
         <v>198</v>
       </c>
-      <c r="L24" t="s">
+      <c r="L25" t="s">
         <v>170</v>
       </c>
-      <c r="M24" t="s">
+      <c r="M25" t="s">
         <v>218</v>
       </c>
-      <c r="N24" t="s">
+      <c r="N25" t="s">
         <v>219</v>
       </c>
-      <c r="O24" s="4"/>
-      <c r="P24" s="4"/>
-    </row>
-    <row r="25" spans="1:16">
-      <c r="A25" t="s">
+    </row>
+    <row r="26" spans="1:14">
+      <c r="A26" t="s">
         <v>222</v>
       </c>
-      <c r="G25" t="s">
+      <c r="G26" t="s">
         <v>199</v>
       </c>
-      <c r="H25" s="4" t="s">
+      <c r="H26" t="s">
         <v>215</v>
       </c>
-      <c r="I25" s="4" t="s">
+      <c r="I26" t="s">
         <v>213</v>
       </c>
-      <c r="J25" s="4" t="s">
+      <c r="J26" t="s">
         <v>214</v>
       </c>
-      <c r="N25" s="4"/>
-      <c r="O25" s="4"/>
-      <c r="P25" s="4"/>
-    </row>
-    <row r="26" spans="1:16">
-      <c r="A26" t="s">
+    </row>
+    <row r="27" spans="1:14">
+      <c r="A27" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="27" spans="1:16">
-      <c r="A27" t="s">
+    <row r="28" spans="1:14">
+      <c r="A28" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="28" spans="1:16">
-      <c r="A28" t="s">
+    <row r="29" spans="1:14">
+      <c r="A29" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="29" spans="1:16">
-      <c r="A29" t="s">
+    <row r="30" spans="1:14">
+      <c r="A30" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="30" spans="1:16">
-      <c r="A30" t="s">
+    <row r="31" spans="1:14">
+      <c r="A31" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="31" spans="1:16">
-      <c r="A31" t="s">
+    <row r="32" spans="1:14">
+      <c r="A32" t="s">
         <v>178</v>
-      </c>
-    </row>
-    <row r="32" spans="1:16">
-      <c r="A32" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" t="s">
-        <v>145</v>
+        <v>179</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" t="s">
-        <v>180</v>
+        <v>144</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" t="s">
-        <v>147</v>
+        <v>181</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" t="s">
-        <v>185</v>
+        <v>152</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" t="s">
-        <v>203</v>
+        <v>187</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" t="s">
-        <v>188</v>
+        <v>203</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55" t="s">
-        <v>153</v>
+        <v>194</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="60" spans="1:1">
       <c r="A60" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="61" spans="1:1">
       <c r="A61" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="62" spans="1:1">
       <c r="A62" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="63" spans="1:1">
       <c r="A63" t="s">
-        <v>149</v>
+        <v>160</v>
       </c>
     </row>
     <row r="64" spans="1:1">
       <c r="A64" t="s">
-        <v>195</v>
+        <v>149</v>
       </c>
     </row>
     <row r="65" spans="1:1">
       <c r="A65" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="66" spans="1:1">
       <c r="A66" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="67" spans="1:1">
       <c r="A67" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1">
+      <c r="A68" t="s">
         <v>204</v>
       </c>
     </row>

--- a/data/raw_results/lanupro_vocabulary_incubations.xlsx
+++ b/data/raw_results/lanupro_vocabulary_incubations.xlsx
@@ -8,16 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SH\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43DCF119-F254-4A14-B431-14233F6030B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C7BCB35-AA79-437B-8ADB-7D651748B1AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{06EA7712-9BA5-4E3A-B464-81F94650D082}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{06EA7712-9BA5-4E3A-B464-81F94650D082}"/>
   </bookViews>
   <sheets>
-    <sheet name="vocabulary" sheetId="1" r:id="rId1"/>
-    <sheet name="description" sheetId="2" r:id="rId2"/>
+    <sheet name="vocabulary_old" sheetId="1" r:id="rId1"/>
+    <sheet name="vocabulary" sheetId="3" r:id="rId2"/>
+    <sheet name="description" sheetId="2" r:id="rId3"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId3"/>
+    <externalReference r:id="rId4"/>
   </externalReferences>
   <definedNames>
     <definedName name="Headings">[1]List!$K$2:INDEX([1]List!$K:$K,COUNTA([1]List!$K:$K))</definedName>
@@ -44,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="660" uniqueCount="224">
   <si>
     <t>lanupro_ontology</t>
   </si>
@@ -2144,11 +2145,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CE468F5-6397-4C82-931F-B2CE02F46428}">
   <dimension ref="A1:DB68"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="E6" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="CJ44" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G11" sqref="G11:J11"/>
+      <selection pane="bottomRight" sqref="A1:DB68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -3240,6 +3241,1215 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6E6D1A6-5A59-47F4-8744-F0D71D58BB8F}">
+  <dimension ref="A1:BP106"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetData>
+    <row r="1" spans="1:68">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C1" t="s">
+        <v>127</v>
+      </c>
+      <c r="D1" t="s">
+        <v>129</v>
+      </c>
+      <c r="E1" t="s">
+        <v>130</v>
+      </c>
+      <c r="F1" t="s">
+        <v>131</v>
+      </c>
+      <c r="G1" t="s">
+        <v>132</v>
+      </c>
+      <c r="H1" t="s">
+        <v>206</v>
+      </c>
+      <c r="I1" t="s">
+        <v>207</v>
+      </c>
+      <c r="J1" t="s">
+        <v>223</v>
+      </c>
+      <c r="K1" t="s">
+        <v>164</v>
+      </c>
+      <c r="L1" t="s">
+        <v>165</v>
+      </c>
+      <c r="M1" t="s">
+        <v>166</v>
+      </c>
+      <c r="N1" t="s">
+        <v>167</v>
+      </c>
+      <c r="O1" t="s">
+        <v>168</v>
+      </c>
+      <c r="P1" t="s">
+        <v>217</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>216</v>
+      </c>
+      <c r="R1" t="s">
+        <v>174</v>
+      </c>
+      <c r="S1" t="s">
+        <v>135</v>
+      </c>
+      <c r="T1" t="s">
+        <v>220</v>
+      </c>
+      <c r="U1" t="s">
+        <v>161</v>
+      </c>
+      <c r="V1" t="s">
+        <v>136</v>
+      </c>
+      <c r="W1" t="s">
+        <v>221</v>
+      </c>
+      <c r="X1" t="s">
+        <v>162</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>142</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>222</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>163</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>175</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>205</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>176</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>177</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>178</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>179</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>145</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>143</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>146</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>144</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>180</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>181</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>147</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>148</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>150</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>151</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>152</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>185</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>186</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>187</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>203</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>188</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>189</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>190</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>191</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>192</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>193</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>194</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>153</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>154</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>155</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>156</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>157</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>158</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>159</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>160</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>149</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>195</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>196</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>197</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="2" spans="1:68">
+      <c r="A2" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E2" t="s">
+        <v>112</v>
+      </c>
+      <c r="F2" t="s">
+        <v>112</v>
+      </c>
+      <c r="G2" t="s">
+        <v>112</v>
+      </c>
+      <c r="H2" t="s">
+        <v>112</v>
+      </c>
+      <c r="I2" t="s">
+        <v>112</v>
+      </c>
+      <c r="K2" t="s">
+        <v>112</v>
+      </c>
+      <c r="L2" t="s">
+        <v>112</v>
+      </c>
+      <c r="P2" t="s">
+        <v>112</v>
+      </c>
+      <c r="S2" t="s">
+        <v>112</v>
+      </c>
+      <c r="V2" t="s">
+        <v>112</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="3" spans="1:68">
+      <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C3" t="s">
+        <v>109</v>
+      </c>
+      <c r="D3" t="s">
+        <v>108</v>
+      </c>
+      <c r="E3" t="s">
+        <v>109</v>
+      </c>
+      <c r="F3" t="s">
+        <v>108</v>
+      </c>
+      <c r="G3" t="s">
+        <v>109</v>
+      </c>
+      <c r="H3" t="s">
+        <v>108</v>
+      </c>
+      <c r="I3" t="s">
+        <v>208</v>
+      </c>
+      <c r="K3" t="s">
+        <v>108</v>
+      </c>
+      <c r="L3" t="s">
+        <v>109</v>
+      </c>
+      <c r="P3" t="s">
+        <v>7</v>
+      </c>
+      <c r="S3" t="s">
+        <v>7</v>
+      </c>
+      <c r="V3" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:68">
+      <c r="A4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>110</v>
+      </c>
+      <c r="D4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" t="s">
+        <v>110</v>
+      </c>
+      <c r="F4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G4" t="s">
+        <v>110</v>
+      </c>
+      <c r="H4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I4" t="s">
+        <v>6</v>
+      </c>
+      <c r="K4" t="s">
+        <v>6</v>
+      </c>
+      <c r="P4" t="s">
+        <v>6</v>
+      </c>
+      <c r="S4" t="s">
+        <v>6</v>
+      </c>
+      <c r="V4" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:68" ht="158.4">
+      <c r="A5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="P5" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="Q5" s="3"/>
+      <c r="R5" s="3"/>
+      <c r="S5" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="T5" s="3"/>
+      <c r="U5" s="3"/>
+      <c r="V5" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="W5" s="3"/>
+      <c r="X5" s="3"/>
+      <c r="Y5" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="Z5" s="3"/>
+      <c r="AA5" s="3"/>
+      <c r="AB5" s="3"/>
+      <c r="AC5" s="3"/>
+      <c r="AD5" s="3"/>
+      <c r="AE5" s="3"/>
+      <c r="AF5" s="3"/>
+      <c r="AG5" s="3"/>
+      <c r="AH5" s="3"/>
+      <c r="AI5" s="3"/>
+      <c r="AJ5" s="3"/>
+      <c r="AK5" s="3"/>
+      <c r="AL5" s="3"/>
+      <c r="AM5" s="3"/>
+      <c r="AN5" s="3"/>
+      <c r="AO5" s="3"/>
+      <c r="AP5" s="3"/>
+      <c r="AQ5" s="3"/>
+      <c r="AR5" s="3"/>
+      <c r="AS5" s="3"/>
+      <c r="AT5" s="3"/>
+      <c r="AU5" s="3"/>
+      <c r="AV5" s="3"/>
+      <c r="AW5" s="3"/>
+      <c r="AX5" s="3"/>
+      <c r="AY5" s="3"/>
+      <c r="AZ5" s="3"/>
+      <c r="BA5" s="3"/>
+      <c r="BB5" s="3"/>
+      <c r="BC5" s="3"/>
+      <c r="BD5" s="3"/>
+      <c r="BE5" s="3"/>
+      <c r="BF5" s="3"/>
+      <c r="BG5" s="3"/>
+      <c r="BH5" s="3"/>
+      <c r="BI5" s="3"/>
+      <c r="BJ5" s="3"/>
+      <c r="BK5" s="3"/>
+      <c r="BL5" s="3"/>
+      <c r="BM5" s="3"/>
+      <c r="BN5" s="3"/>
+      <c r="BO5" s="3"/>
+      <c r="BP5" s="3"/>
+    </row>
+    <row r="6" spans="1:68">
+      <c r="A6" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B6" t="s">
+        <v>112</v>
+      </c>
+      <c r="C6" t="s">
+        <v>128</v>
+      </c>
+      <c r="D6" t="s">
+        <v>112</v>
+      </c>
+      <c r="E6" t="s">
+        <v>128</v>
+      </c>
+      <c r="F6" t="s">
+        <v>112</v>
+      </c>
+      <c r="G6" t="s">
+        <v>128</v>
+      </c>
+      <c r="L6" t="s">
+        <v>128</v>
+      </c>
+      <c r="P6" t="s">
+        <v>112</v>
+      </c>
+      <c r="S6" t="s">
+        <v>112</v>
+      </c>
+      <c r="V6" t="s">
+        <v>112</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="7" spans="1:68">
+      <c r="A7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J7" t="s">
+        <v>138</v>
+      </c>
+      <c r="K7" t="s">
+        <v>199</v>
+      </c>
+      <c r="O7" t="s">
+        <v>169</v>
+      </c>
+      <c r="P7" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>199</v>
+      </c>
+      <c r="S7" t="s">
+        <v>138</v>
+      </c>
+      <c r="T7" t="s">
+        <v>199</v>
+      </c>
+      <c r="V7" t="s">
+        <v>138</v>
+      </c>
+      <c r="W7" t="s">
+        <v>199</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>138</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="8" spans="1:68">
+      <c r="A8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J8" t="s">
+        <v>139</v>
+      </c>
+      <c r="K8" t="s">
+        <v>215</v>
+      </c>
+      <c r="O8" t="s">
+        <v>170</v>
+      </c>
+      <c r="P8" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>215</v>
+      </c>
+      <c r="S8" t="s">
+        <v>139</v>
+      </c>
+      <c r="T8" t="s">
+        <v>215</v>
+      </c>
+      <c r="V8" t="s">
+        <v>139</v>
+      </c>
+      <c r="W8" t="s">
+        <v>215</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>139</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="9" spans="1:68">
+      <c r="A9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J9" t="s">
+        <v>140</v>
+      </c>
+      <c r="K9" t="s">
+        <v>213</v>
+      </c>
+      <c r="O9" t="s">
+        <v>171</v>
+      </c>
+      <c r="P9" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>213</v>
+      </c>
+      <c r="S9" t="s">
+        <v>140</v>
+      </c>
+      <c r="T9" t="s">
+        <v>213</v>
+      </c>
+      <c r="V9" t="s">
+        <v>140</v>
+      </c>
+      <c r="W9" t="s">
+        <v>213</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>140</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="10" spans="1:68">
+      <c r="A10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J10" t="s">
+        <v>169</v>
+      </c>
+      <c r="K10" t="s">
+        <v>214</v>
+      </c>
+      <c r="O10" t="s">
+        <v>172</v>
+      </c>
+      <c r="P10" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>214</v>
+      </c>
+      <c r="S10" t="s">
+        <v>169</v>
+      </c>
+      <c r="T10" t="s">
+        <v>214</v>
+      </c>
+      <c r="V10" t="s">
+        <v>169</v>
+      </c>
+      <c r="W10" t="s">
+        <v>214</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>169</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="11" spans="1:68">
+      <c r="A11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J11" t="s">
+        <v>198</v>
+      </c>
+      <c r="P11" t="s">
+        <v>198</v>
+      </c>
+      <c r="S11" t="s">
+        <v>198</v>
+      </c>
+      <c r="V11" t="s">
+        <v>198</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="12" spans="1:68">
+      <c r="A12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J12" t="s">
+        <v>170</v>
+      </c>
+      <c r="P12" t="s">
+        <v>170</v>
+      </c>
+      <c r="S12" t="s">
+        <v>170</v>
+      </c>
+      <c r="V12" t="s">
+        <v>170</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="13" spans="1:68">
+      <c r="A13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J13" t="s">
+        <v>218</v>
+      </c>
+      <c r="P13" t="s">
+        <v>218</v>
+      </c>
+      <c r="S13" t="s">
+        <v>218</v>
+      </c>
+      <c r="V13" t="s">
+        <v>218</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="14" spans="1:68">
+      <c r="A14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J14" t="s">
+        <v>219</v>
+      </c>
+      <c r="P14" t="s">
+        <v>219</v>
+      </c>
+      <c r="S14" t="s">
+        <v>219</v>
+      </c>
+      <c r="V14" t="s">
+        <v>219</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="15" spans="1:68">
+      <c r="A15" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:68">
+      <c r="A16" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1">
+      <c r="A44" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1">
+      <c r="A45" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1">
+      <c r="A46" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1">
+      <c r="A47" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1">
+      <c r="A48" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1">
+      <c r="A52" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1">
+      <c r="A53" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1">
+      <c r="A54" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1">
+      <c r="A55" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1">
+      <c r="A56" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1">
+      <c r="A57" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1">
+      <c r="A58" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1">
+      <c r="A59" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1">
+      <c r="A60" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1">
+      <c r="A61" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1">
+      <c r="A62" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1">
+      <c r="A63" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1">
+      <c r="A64" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1">
+      <c r="A65" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1">
+      <c r="A66" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1">
+      <c r="A67" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1">
+      <c r="A68" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1">
+      <c r="A69" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1">
+      <c r="A70" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1">
+      <c r="A71" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1">
+      <c r="A72" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1">
+      <c r="A73" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1">
+      <c r="A74" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1">
+      <c r="A75" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1">
+      <c r="A76" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1">
+      <c r="A77" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1">
+      <c r="A78" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1">
+      <c r="A79" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1">
+      <c r="A80" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1">
+      <c r="A81" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1">
+      <c r="A82" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1">
+      <c r="A83" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1">
+      <c r="A84" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1">
+      <c r="A85" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1">
+      <c r="A86" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1">
+      <c r="A87" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1">
+      <c r="A88" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1">
+      <c r="A89" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1">
+      <c r="A90" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1">
+      <c r="A91" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1">
+      <c r="A92" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1">
+      <c r="A93" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1">
+      <c r="A94" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1">
+      <c r="A95" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1">
+      <c r="A96" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1">
+      <c r="A97" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1">
+      <c r="A98" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1">
+      <c r="A99" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1">
+      <c r="A100" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1">
+      <c r="A101" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1">
+      <c r="A102" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1">
+      <c r="A103" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1">
+      <c r="A104" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1">
+      <c r="A105" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1">
+      <c r="A106" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{E7C548E2-2325-4A89-AACC-A6B62EAB9082}">
+          <x14:formula1>
+            <xm:f>description!$E$6:$I$6</xm:f>
+          </x14:formula1>
+          <xm:sqref>B3:BP3</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{2FF45D2A-73AF-47B4-9EFA-3A4BFC648610}">
+          <x14:formula1>
+            <xm:f>description!$E$7:$H$7</xm:f>
+          </x14:formula1>
+          <xm:sqref>B4:BP4</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A68D4BA7-81A7-496D-83F7-4CE2A3B40B1B}">
   <dimension ref="A1:I10"/>
   <sheetViews>

--- a/data/raw_results/lanupro_vocabulary_incubations.xlsx
+++ b/data/raw_results/lanupro_vocabulary_incubations.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SH\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C7BCB35-AA79-437B-8ADB-7D651748B1AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{314F22A4-09B3-4682-973F-95B3771111F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{06EA7712-9BA5-4E3A-B464-81F94650D082}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="660" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="660" uniqueCount="225">
   <si>
     <t>lanupro_ontology</t>
   </si>
@@ -719,6 +719,9 @@
   </si>
   <si>
     <t>trt_rep_1_type</t>
+  </si>
+  <si>
+    <t>lanupro_ontology&gt;</t>
   </si>
 </sst>
 </file>
@@ -3245,14 +3248,14 @@
   <dimension ref="A1:BP106"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:68">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>224</v>
       </c>
       <c r="B1" t="s">
         <v>125</v>

--- a/data/raw_results/lanupro_vocabulary_incubations.xlsx
+++ b/data/raw_results/lanupro_vocabulary_incubations.xlsx
@@ -8,17 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SH\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{314F22A4-09B3-4682-973F-95B3771111F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F104803-E7D9-4F2B-B64F-FDA8214801CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{06EA7712-9BA5-4E3A-B464-81F94650D082}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{06EA7712-9BA5-4E3A-B464-81F94650D082}"/>
   </bookViews>
   <sheets>
-    <sheet name="vocabulary_old" sheetId="1" r:id="rId1"/>
-    <sheet name="vocabulary" sheetId="3" r:id="rId2"/>
-    <sheet name="description" sheetId="2" r:id="rId3"/>
+    <sheet name="vocabulary" sheetId="3" r:id="rId1"/>
+    <sheet name="description" sheetId="2" r:id="rId2"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId4"/>
+    <externalReference r:id="rId3"/>
   </externalReferences>
   <definedNames>
     <definedName name="Headings">[1]List!$K$2:INDEX([1]List!$K:$K,COUNTA([1]List!$K:$K))</definedName>
@@ -45,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="660" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="225">
   <si>
     <t>lanupro_ontology</t>
   </si>
@@ -2145,1110 +2144,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CE468F5-6397-4C82-931F-B2CE02F46428}">
-  <dimension ref="A1:DB68"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="CJ44" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" sqref="A1:DB68"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
-  <cols>
-    <col min="1" max="1" width="26.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="45.44140625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="20.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.88671875" customWidth="1"/>
-    <col min="9" max="9" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.21875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:106">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AG1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="AH1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="AI1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="AJ1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="AK1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AL1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="AM1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="AN1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="AO1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="AP1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="AQ1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="AR1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="AS1" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="AT1" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="AU1" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="AV1" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AW1" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="AX1" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="AY1" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="AZ1" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="BA1" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="BB1" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="BC1" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="BD1" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="BE1" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="BF1" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="BG1" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="BH1" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="BI1" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="BJ1" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="BK1" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="BL1" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="BM1" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="BN1" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="BO1" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="BP1" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="BQ1" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="BR1" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="BS1" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="BT1" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="BU1" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="BV1" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="BW1" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="BX1" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="BY1" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="BZ1" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="CA1" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="CB1" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="CC1" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="CD1" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="CE1" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="CF1" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="CG1" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="CH1" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="CI1" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="CJ1" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="CK1" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="CL1" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="CM1" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="CN1" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="CO1" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="CP1" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="CQ1" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="CR1" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="CS1" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="CT1" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="CU1" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="CV1" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="CW1" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="CX1" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="CY1" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="CZ1" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="DA1" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="DB1" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="2" spans="1:106" ht="28.8">
-      <c r="A2" t="s">
-        <v>125</v>
-      </c>
-      <c r="B2" t="s">
-        <v>112</v>
-      </c>
-      <c r="C2" t="s">
-        <v>108</v>
-      </c>
-      <c r="D2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="F2" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="3" spans="1:106" ht="28.8">
-      <c r="A3" t="s">
-        <v>127</v>
-      </c>
-      <c r="B3" t="s">
-        <v>112</v>
-      </c>
-      <c r="C3" t="s">
-        <v>109</v>
-      </c>
-      <c r="D3" t="s">
-        <v>110</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="F3" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="4" spans="1:106" ht="28.8">
-      <c r="A4" t="s">
-        <v>129</v>
-      </c>
-      <c r="B4" t="s">
-        <v>112</v>
-      </c>
-      <c r="C4" t="s">
-        <v>108</v>
-      </c>
-      <c r="D4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="F4" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="5" spans="1:106" ht="28.8">
-      <c r="A5" t="s">
-        <v>130</v>
-      </c>
-      <c r="B5" t="s">
-        <v>112</v>
-      </c>
-      <c r="C5" t="s">
-        <v>109</v>
-      </c>
-      <c r="D5" t="s">
-        <v>110</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="F5" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="6" spans="1:106" ht="28.8">
-      <c r="A6" t="s">
-        <v>131</v>
-      </c>
-      <c r="B6" t="s">
-        <v>112</v>
-      </c>
-      <c r="C6" t="s">
-        <v>108</v>
-      </c>
-      <c r="D6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="F6" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="7" spans="1:106" ht="28.8">
-      <c r="A7" t="s">
-        <v>132</v>
-      </c>
-      <c r="B7" t="s">
-        <v>112</v>
-      </c>
-      <c r="C7" t="s">
-        <v>109</v>
-      </c>
-      <c r="D7" t="s">
-        <v>110</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="F7" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="8" spans="1:106" ht="28.8">
-      <c r="A8" t="s">
-        <v>206</v>
-      </c>
-      <c r="B8" t="s">
-        <v>112</v>
-      </c>
-      <c r="C8" t="s">
-        <v>108</v>
-      </c>
-      <c r="D8" t="s">
-        <v>6</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="9" spans="1:106">
-      <c r="A9" t="s">
-        <v>207</v>
-      </c>
-      <c r="B9" t="s">
-        <v>112</v>
-      </c>
-      <c r="C9" t="s">
-        <v>208</v>
-      </c>
-      <c r="D9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="10" spans="1:106">
-      <c r="A10" t="s">
-        <v>223</v>
-      </c>
-      <c r="G10" t="s">
-        <v>138</v>
-      </c>
-      <c r="H10" t="s">
-        <v>139</v>
-      </c>
-      <c r="I10" t="s">
-        <v>140</v>
-      </c>
-      <c r="J10" t="s">
-        <v>169</v>
-      </c>
-      <c r="K10" t="s">
-        <v>198</v>
-      </c>
-      <c r="L10" t="s">
-        <v>170</v>
-      </c>
-      <c r="M10" t="s">
-        <v>218</v>
-      </c>
-      <c r="N10" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="11" spans="1:106" ht="28.8">
-      <c r="A11" t="s">
-        <v>164</v>
-      </c>
-      <c r="B11" t="s">
-        <v>112</v>
-      </c>
-      <c r="C11" t="s">
-        <v>108</v>
-      </c>
-      <c r="D11" t="s">
-        <v>6</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="G11" t="s">
-        <v>199</v>
-      </c>
-      <c r="H11" t="s">
-        <v>215</v>
-      </c>
-      <c r="I11" t="s">
-        <v>213</v>
-      </c>
-      <c r="J11" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="12" spans="1:106">
-      <c r="A12" t="s">
-        <v>165</v>
-      </c>
-      <c r="B12" t="s">
-        <v>112</v>
-      </c>
-      <c r="C12" t="s">
-        <v>109</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="F12" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="13" spans="1:106">
-      <c r="A13" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="14" spans="1:106">
-      <c r="A14" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="15" spans="1:106">
-      <c r="A15" t="s">
-        <v>168</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="G15" t="s">
-        <v>169</v>
-      </c>
-      <c r="H15" t="s">
-        <v>170</v>
-      </c>
-      <c r="I15" t="s">
-        <v>171</v>
-      </c>
-      <c r="J15" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="16" spans="1:106">
-      <c r="A16" t="s">
-        <v>217</v>
-      </c>
-      <c r="B16" t="s">
-        <v>112</v>
-      </c>
-      <c r="C16" t="s">
-        <v>7</v>
-      </c>
-      <c r="D16" t="s">
-        <v>6</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="F16" t="s">
-        <v>112</v>
-      </c>
-      <c r="G16" t="s">
-        <v>138</v>
-      </c>
-      <c r="H16" t="s">
-        <v>139</v>
-      </c>
-      <c r="I16" t="s">
-        <v>140</v>
-      </c>
-      <c r="J16" t="s">
-        <v>169</v>
-      </c>
-      <c r="K16" t="s">
-        <v>198</v>
-      </c>
-      <c r="L16" t="s">
-        <v>170</v>
-      </c>
-      <c r="M16" t="s">
-        <v>218</v>
-      </c>
-      <c r="N16" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
-      <c r="A17" t="s">
-        <v>216</v>
-      </c>
-      <c r="G17" t="s">
-        <v>199</v>
-      </c>
-      <c r="H17" t="s">
-        <v>215</v>
-      </c>
-      <c r="I17" t="s">
-        <v>213</v>
-      </c>
-      <c r="J17" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
-      <c r="A18" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
-      <c r="A19" t="s">
-        <v>135</v>
-      </c>
-      <c r="B19" t="s">
-        <v>112</v>
-      </c>
-      <c r="C19" t="s">
-        <v>7</v>
-      </c>
-      <c r="D19" t="s">
-        <v>6</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="F19" t="s">
-        <v>112</v>
-      </c>
-      <c r="G19" t="s">
-        <v>138</v>
-      </c>
-      <c r="H19" t="s">
-        <v>139</v>
-      </c>
-      <c r="I19" t="s">
-        <v>140</v>
-      </c>
-      <c r="J19" t="s">
-        <v>169</v>
-      </c>
-      <c r="K19" t="s">
-        <v>198</v>
-      </c>
-      <c r="L19" t="s">
-        <v>170</v>
-      </c>
-      <c r="M19" t="s">
-        <v>218</v>
-      </c>
-      <c r="N19" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
-      <c r="A20" t="s">
-        <v>220</v>
-      </c>
-      <c r="G20" t="s">
-        <v>199</v>
-      </c>
-      <c r="H20" t="s">
-        <v>215</v>
-      </c>
-      <c r="I20" t="s">
-        <v>213</v>
-      </c>
-      <c r="J20" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
-      <c r="A21" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
-      <c r="A22" t="s">
-        <v>136</v>
-      </c>
-      <c r="B22" t="s">
-        <v>112</v>
-      </c>
-      <c r="C22" t="s">
-        <v>7</v>
-      </c>
-      <c r="D22" t="s">
-        <v>6</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="F22" t="s">
-        <v>112</v>
-      </c>
-      <c r="G22" t="s">
-        <v>138</v>
-      </c>
-      <c r="H22" t="s">
-        <v>139</v>
-      </c>
-      <c r="I22" t="s">
-        <v>140</v>
-      </c>
-      <c r="J22" t="s">
-        <v>169</v>
-      </c>
-      <c r="K22" t="s">
-        <v>198</v>
-      </c>
-      <c r="L22" t="s">
-        <v>170</v>
-      </c>
-      <c r="M22" t="s">
-        <v>218</v>
-      </c>
-      <c r="N22" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
-      <c r="A23" t="s">
-        <v>221</v>
-      </c>
-      <c r="G23" t="s">
-        <v>199</v>
-      </c>
-      <c r="H23" t="s">
-        <v>215</v>
-      </c>
-      <c r="I23" t="s">
-        <v>213</v>
-      </c>
-      <c r="J23" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
-      <c r="A24" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
-      <c r="A25" t="s">
-        <v>142</v>
-      </c>
-      <c r="B25" t="s">
-        <v>112</v>
-      </c>
-      <c r="C25" t="s">
-        <v>7</v>
-      </c>
-      <c r="D25" t="s">
-        <v>6</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="F25" t="s">
-        <v>112</v>
-      </c>
-      <c r="G25" t="s">
-        <v>138</v>
-      </c>
-      <c r="H25" t="s">
-        <v>139</v>
-      </c>
-      <c r="I25" t="s">
-        <v>140</v>
-      </c>
-      <c r="J25" t="s">
-        <v>169</v>
-      </c>
-      <c r="K25" t="s">
-        <v>198</v>
-      </c>
-      <c r="L25" t="s">
-        <v>170</v>
-      </c>
-      <c r="M25" t="s">
-        <v>218</v>
-      </c>
-      <c r="N25" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14">
-      <c r="A26" t="s">
-        <v>222</v>
-      </c>
-      <c r="G26" t="s">
-        <v>199</v>
-      </c>
-      <c r="H26" t="s">
-        <v>215</v>
-      </c>
-      <c r="I26" t="s">
-        <v>213</v>
-      </c>
-      <c r="J26" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14">
-      <c r="A27" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14">
-      <c r="A28" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14">
-      <c r="A29" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14">
-      <c r="A30" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14">
-      <c r="A31" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14">
-      <c r="A32" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1">
-      <c r="A33" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1">
-      <c r="A34" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1">
-      <c r="A35" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1">
-      <c r="A36" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1">
-      <c r="A37" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1">
-      <c r="A38" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1">
-      <c r="A39" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1">
-      <c r="A40" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1">
-      <c r="A41" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1">
-      <c r="A42" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1">
-      <c r="A43" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1">
-      <c r="A44" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1">
-      <c r="A45" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1">
-      <c r="A46" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1">
-      <c r="A47" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1">
-      <c r="A48" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1">
-      <c r="A49" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1">
-      <c r="A50" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1">
-      <c r="A51" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1">
-      <c r="A52" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1">
-      <c r="A53" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1">
-      <c r="A54" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1">
-      <c r="A55" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="56" spans="1:1">
-      <c r="A56" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="57" spans="1:1">
-      <c r="A57" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="58" spans="1:1">
-      <c r="A58" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="59" spans="1:1">
-      <c r="A59" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="60" spans="1:1">
-      <c r="A60" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="61" spans="1:1">
-      <c r="A61" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="62" spans="1:1">
-      <c r="A62" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="63" spans="1:1">
-      <c r="A63" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="64" spans="1:1">
-      <c r="A64" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="65" spans="1:1">
-      <c r="A65" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="66" spans="1:1">
-      <c r="A66" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="67" spans="1:1">
-      <c r="A67" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="68" spans="1:1">
-      <c r="A68" t="s">
-        <v>204</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{2AA43B74-602F-42D3-8C41-9A5E92E4A78B}">
-          <x14:formula1>
-            <xm:f>description!$E$7:$H$7</xm:f>
-          </x14:formula1>
-          <xm:sqref>D2:D1048576</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{A4C69EF4-7A1D-4237-84FA-A10B28653487}">
-          <x14:formula1>
-            <xm:f>description!$E$6:$I$6</xm:f>
-          </x14:formula1>
-          <xm:sqref>C2:C1048576</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6E6D1A6-5A59-47F4-8744-F0D71D58BB8F}">
   <dimension ref="A1:BP106"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -4452,7 +3352,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A68D4BA7-81A7-496D-83F7-4CE2A3B40B1B}">
   <dimension ref="A1:I10"/>
   <sheetViews>

--- a/data/raw_results/lanupro_vocabulary_incubations.xlsx
+++ b/data/raw_results/lanupro_vocabulary_incubations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SH\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F104803-E7D9-4F2B-B64F-FDA8214801CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8C81967-6FBB-4611-AFFA-D28EE6FBFCD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{06EA7712-9BA5-4E3A-B464-81F94650D082}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="224">
   <si>
     <t>lanupro_ontology</t>
   </si>
@@ -718,9 +718,6 @@
   </si>
   <si>
     <t>trt_rep_1_type</t>
-  </si>
-  <si>
-    <t>lanupro_ontology&gt;</t>
   </si>
 </sst>
 </file>
@@ -2148,14 +2145,14 @@
   <dimension ref="A1:BP106"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:68">
       <c r="A1" s="1" t="s">
-        <v>224</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>125</v>

--- a/data/raw_results/lanupro_vocabulary_incubations.xlsx
+++ b/data/raw_results/lanupro_vocabulary_incubations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SH\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8C81967-6FBB-4611-AFFA-D28EE6FBFCD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3393A42A-96F3-4083-9214-7B5FA115F6C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{06EA7712-9BA5-4E3A-B464-81F94650D082}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="224">
   <si>
     <t>lanupro_ontology</t>
   </si>
@@ -2145,10 +2145,14 @@
   <dimension ref="A1:BP106"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="9" max="9" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:68">
       <c r="A1" s="1" t="s">
@@ -2382,6 +2386,9 @@
         <v>112</v>
       </c>
       <c r="I2" t="s">
+        <v>112</v>
+      </c>
+      <c r="J2" t="s">
         <v>112</v>
       </c>
       <c r="K2" t="s">

--- a/data/raw_results/lanupro_vocabulary_incubations.xlsx
+++ b/data/raw_results/lanupro_vocabulary_incubations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SH\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3393A42A-96F3-4083-9214-7B5FA115F6C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2EA2AE8-A823-46D5-B111-0D29C58FC155}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{06EA7712-9BA5-4E3A-B464-81F94650D082}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="662" uniqueCount="224">
   <si>
     <t>lanupro_ontology</t>
   </si>
@@ -567,9 +567,6 @@
     <t>rumen_residue_pr</t>
   </si>
   <si>
-    <t>blanc: , control: , direct_pr: , rumen_residue_pr:</t>
-  </si>
-  <si>
     <t>trt_add_1_ug_per_ml</t>
   </si>
   <si>
@@ -718,6 +715,9 @@
   </si>
   <si>
     <t>trt_rep_1_type</t>
+  </si>
+  <si>
+    <t>treatment replacement type (treatment which replaces a certain amount of substrate)</t>
   </si>
 </sst>
 </file>
@@ -2145,7 +2145,7 @@
   <dimension ref="A1:BP106"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2177,13 +2177,13 @@
         <v>132</v>
       </c>
       <c r="H1" t="s">
+        <v>205</v>
+      </c>
+      <c r="I1" t="s">
         <v>206</v>
       </c>
-      <c r="I1" t="s">
-        <v>207</v>
-      </c>
       <c r="J1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="K1" t="s">
         <v>164</v>
@@ -2201,19 +2201,19 @@
         <v>168</v>
       </c>
       <c r="P1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="Q1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="R1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="S1" t="s">
         <v>135</v>
       </c>
       <c r="T1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="U1" t="s">
         <v>161</v>
@@ -2222,7 +2222,7 @@
         <v>136</v>
       </c>
       <c r="W1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="X1" t="s">
         <v>162</v>
@@ -2231,28 +2231,28 @@
         <v>142</v>
       </c>
       <c r="Z1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AA1" t="s">
         <v>163</v>
       </c>
       <c r="AB1" t="s">
+        <v>174</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>204</v>
+      </c>
+      <c r="AD1" t="s">
         <v>175</v>
       </c>
-      <c r="AC1" t="s">
-        <v>205</v>
-      </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>176</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AF1" t="s">
         <v>177</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AG1" t="s">
         <v>178</v>
-      </c>
-      <c r="AG1" t="s">
-        <v>179</v>
       </c>
       <c r="AH1" t="s">
         <v>145</v>
@@ -2267,10 +2267,10 @@
         <v>144</v>
       </c>
       <c r="AL1" t="s">
+        <v>179</v>
+      </c>
+      <c r="AM1" t="s">
         <v>180</v>
-      </c>
-      <c r="AM1" t="s">
-        <v>181</v>
       </c>
       <c r="AN1" t="s">
         <v>147</v>
@@ -2288,37 +2288,37 @@
         <v>152</v>
       </c>
       <c r="AS1" t="s">
+        <v>184</v>
+      </c>
+      <c r="AT1" t="s">
         <v>185</v>
       </c>
-      <c r="AT1" t="s">
+      <c r="AU1" t="s">
         <v>186</v>
       </c>
-      <c r="AU1" t="s">
+      <c r="AV1" t="s">
+        <v>202</v>
+      </c>
+      <c r="AW1" t="s">
         <v>187</v>
       </c>
-      <c r="AV1" t="s">
-        <v>203</v>
-      </c>
-      <c r="AW1" t="s">
+      <c r="AX1" t="s">
         <v>188</v>
       </c>
-      <c r="AX1" t="s">
+      <c r="AY1" t="s">
         <v>189</v>
       </c>
-      <c r="AY1" t="s">
+      <c r="AZ1" t="s">
         <v>190</v>
       </c>
-      <c r="AZ1" t="s">
+      <c r="BA1" t="s">
         <v>191</v>
       </c>
-      <c r="BA1" t="s">
+      <c r="BB1" t="s">
         <v>192</v>
       </c>
-      <c r="BB1" t="s">
+      <c r="BC1" t="s">
         <v>193</v>
-      </c>
-      <c r="BC1" t="s">
-        <v>194</v>
       </c>
       <c r="BD1" t="s">
         <v>153</v>
@@ -2348,16 +2348,16 @@
         <v>149</v>
       </c>
       <c r="BM1" t="s">
+        <v>194</v>
+      </c>
+      <c r="BN1" t="s">
         <v>195</v>
       </c>
-      <c r="BN1" t="s">
+      <c r="BO1" t="s">
         <v>196</v>
       </c>
-      <c r="BO1" t="s">
-        <v>197</v>
-      </c>
       <c r="BP1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="2" spans="1:68">
@@ -2436,7 +2436,7 @@
         <v>108</v>
       </c>
       <c r="I3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="K3" t="s">
         <v>108</v>
@@ -2509,40 +2509,40 @@
         <v>126</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>133</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>134</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H5" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="I5" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="I5" s="3" t="s">
+      <c r="J5" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="K5" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3" t="s">
+      <c r="L5" s="3" t="s">
         <v>211</v>
-      </c>
-      <c r="L5" s="3" t="s">
-        <v>212</v>
       </c>
       <c r="M5" s="3"/>
       <c r="N5" s="3"/>
-      <c r="O5" s="3" t="s">
-        <v>173</v>
-      </c>
+      <c r="O5" s="3"/>
       <c r="P5" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="Q5" s="3"/>
       <c r="R5" s="3"/>
@@ -2552,12 +2552,12 @@
       <c r="T5" s="3"/>
       <c r="U5" s="3"/>
       <c r="V5" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="W5" s="3"/>
       <c r="X5" s="3"/>
       <c r="Y5" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="Z5" s="3"/>
       <c r="AA5" s="3"/>
@@ -2649,7 +2649,7 @@
         <v>138</v>
       </c>
       <c r="K7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="O7" t="s">
         <v>169</v>
@@ -2658,25 +2658,25 @@
         <v>138</v>
       </c>
       <c r="Q7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="S7" t="s">
         <v>138</v>
       </c>
       <c r="T7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="V7" t="s">
         <v>138</v>
       </c>
       <c r="W7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="Y7" t="s">
         <v>138</v>
       </c>
       <c r="Z7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="8" spans="1:68">
@@ -2687,7 +2687,7 @@
         <v>139</v>
       </c>
       <c r="K8" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="O8" t="s">
         <v>170</v>
@@ -2696,25 +2696,25 @@
         <v>139</v>
       </c>
       <c r="Q8" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="S8" t="s">
         <v>139</v>
       </c>
       <c r="T8" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="V8" t="s">
         <v>139</v>
       </c>
       <c r="W8" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="Y8" t="s">
         <v>139</v>
       </c>
       <c r="Z8" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="9" spans="1:68">
@@ -2725,7 +2725,7 @@
         <v>140</v>
       </c>
       <c r="K9" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="O9" t="s">
         <v>171</v>
@@ -2734,25 +2734,25 @@
         <v>140</v>
       </c>
       <c r="Q9" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="S9" t="s">
         <v>140</v>
       </c>
       <c r="T9" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="V9" t="s">
         <v>140</v>
       </c>
       <c r="W9" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="Y9" t="s">
         <v>140</v>
       </c>
       <c r="Z9" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="10" spans="1:68">
@@ -2763,7 +2763,7 @@
         <v>169</v>
       </c>
       <c r="K10" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="O10" t="s">
         <v>172</v>
@@ -2772,25 +2772,25 @@
         <v>169</v>
       </c>
       <c r="Q10" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="S10" t="s">
         <v>169</v>
       </c>
       <c r="T10" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="V10" t="s">
         <v>169</v>
       </c>
       <c r="W10" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="Y10" t="s">
         <v>169</v>
       </c>
       <c r="Z10" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="11" spans="1:68">
@@ -2798,19 +2798,19 @@
         <v>12</v>
       </c>
       <c r="J11" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="P11" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="S11" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="V11" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="Y11" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="12" spans="1:68">
@@ -2838,19 +2838,19 @@
         <v>14</v>
       </c>
       <c r="J13" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="P13" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="S13" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="V13" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="Y13" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="14" spans="1:68">
@@ -2858,19 +2858,19 @@
         <v>15</v>
       </c>
       <c r="J14" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="P14" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="S14" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="V14" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="Y14" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="15" spans="1:68">
@@ -3483,7 +3483,7 @@
         <v>109</v>
       </c>
       <c r="I6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="7" spans="1:9">

--- a/data/raw_results/lanupro_vocabulary_incubations.xlsx
+++ b/data/raw_results/lanupro_vocabulary_incubations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SH\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2EA2AE8-A823-46D5-B111-0D29C58FC155}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2923385A-1A7B-4AB1-9060-095000D609D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{06EA7712-9BA5-4E3A-B464-81F94650D082}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="662" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="224">
   <si>
     <t>lanupro_ontology</t>
   </si>
@@ -2145,7 +2145,7 @@
   <dimension ref="A1:BP106"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+      <selection activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2395,6 +2395,9 @@
         <v>112</v>
       </c>
       <c r="L2" t="s">
+        <v>112</v>
+      </c>
+      <c r="M2" t="s">
         <v>112</v>
       </c>
       <c r="P2" t="s">

--- a/data/raw_results/lanupro_vocabulary_incubations.xlsx
+++ b/data/raw_results/lanupro_vocabulary_incubations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SH\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2923385A-1A7B-4AB1-9060-095000D609D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE742B1B-CEA3-48CE-9508-A1B4A6777399}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{06EA7712-9BA5-4E3A-B464-81F94650D082}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="225">
   <si>
     <t>lanupro_ontology</t>
   </si>
@@ -718,6 +718,9 @@
   </si>
   <si>
     <t>treatment replacement type (treatment which replaces a certain amount of substrate)</t>
+  </si>
+  <si>
+    <t>lanupro_ontology&gt;</t>
   </si>
 </sst>
 </file>
@@ -2145,7 +2148,7 @@
   <dimension ref="A1:BP106"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M3" sqref="M3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2156,7 +2159,7 @@
   <sheetData>
     <row r="1" spans="1:68">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>224</v>
       </c>
       <c r="B1" t="s">
         <v>125</v>

--- a/data/raw_results/lanupro_vocabulary_incubations.xlsx
+++ b/data/raw_results/lanupro_vocabulary_incubations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SH\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE742B1B-CEA3-48CE-9508-A1B4A6777399}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97AC1467-91E3-4745-9553-4D537A6D652C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{06EA7712-9BA5-4E3A-B464-81F94650D082}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="224">
   <si>
     <t>lanupro_ontology</t>
   </si>
@@ -718,9 +718,6 @@
   </si>
   <si>
     <t>treatment replacement type (treatment which replaces a certain amount of substrate)</t>
-  </si>
-  <si>
-    <t>lanupro_ontology&gt;</t>
   </si>
 </sst>
 </file>
@@ -2159,7 +2156,7 @@
   <sheetData>
     <row r="1" spans="1:68">
       <c r="A1" s="1" t="s">
-        <v>224</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>125</v>
